--- a/TablaSintactica.xlsx
+++ b/TablaSintactica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Developer\OneDrive\Documentos\University\Archivos\PDF's\Autómatas\Programas\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40113C8-56FE-4411-9612-7B5D81456FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21E1B00-B237-4E5F-B86A-F160B67499F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D62EC496-1556-4E0C-9A3E-7AF50D9FA4F9}"/>
   </bookViews>
@@ -1194,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E59CA23-57F3-4C77-80B4-8B27E4C8042E}">
-  <dimension ref="A1:CY163"/>
+  <dimension ref="A1:CY164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="R122" sqref="R122"/>
+    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1207,324 +1207,505 @@
     <col min="47" max="47" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>B1+1</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:BJ1" si="0">C1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AD1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AE1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AJ1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AK1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AL1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AM1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AN1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AO1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AP1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AQ1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="AR1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AS1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AT1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AU1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AV1">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="AW1">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="AX1">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="AY1">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="AZ1">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="BA1">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="BB1">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="BC1">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="BD1">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="BE1">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="BF1">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="BG1">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="BH1">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="BI1">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="BJ1">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="Q1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
     </row>
     <row r="3" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
     </row>
     <row r="4" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1555,14 +1736,14 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
+      <c r="AJ4" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
@@ -1588,11 +1769,9 @@
     </row>
     <row r="5" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1621,7 +1800,9 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
@@ -1652,9 +1833,11 @@
     </row>
     <row r="6" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1677,9 +1860,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-      <c r="Y6" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -1716,26 +1897,16 @@
     </row>
     <row r="7" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1751,42 +1922,24 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="Y7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
-      <c r="AH7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
-      <c r="AL7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
@@ -1808,16 +1961,26 @@
     </row>
     <row r="8" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1835,22 +1998,40 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
+      <c r="AD8" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
+      <c r="AF8" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
+      <c r="AH8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
+      <c r="AL8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
@@ -1872,7 +2053,7 @@
     </row>
     <row r="9" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1898,22 +2079,18 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="Z9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-      <c r="AH9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
@@ -1922,15 +2099,9 @@
       <c r="AO9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AQ9" s="3"/>
-      <c r="AR9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT9" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="3"/>
@@ -1946,11 +2117,9 @@
     </row>
     <row r="10" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1980,10 +2149,16 @@
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
+      <c r="AF10" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
+      <c r="AH10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
@@ -1992,9 +2167,15 @@
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
+      <c r="AR10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="3"/>
@@ -2010,10 +2191,10 @@
     </row>
     <row r="11" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2074,10 +2255,10 @@
     </row>
     <row r="12" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2138,10 +2319,10 @@
     </row>
     <row r="13" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2202,10 +2383,10 @@
     </row>
     <row r="14" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2266,9 +2447,11 @@
     </row>
     <row r="15" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -2302,9 +2485,7 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
@@ -2330,7 +2511,7 @@
     </row>
     <row r="16" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2362,13 +2543,13 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-      <c r="AF16" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
+      <c r="AJ16" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
@@ -2390,13 +2571,11 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
       <c r="BE16" s="3"/>
-      <c r="BF16" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="BF16" s="3"/>
     </row>
     <row r="17" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2429,15 +2608,11 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AG17" s="3"/>
-      <c r="AH17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI17" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
@@ -2446,15 +2621,9 @@
       <c r="AO17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AQ17" s="3"/>
-      <c r="AR17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT17" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
       <c r="AW17" s="3"/>
@@ -2466,11 +2635,13 @@
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
+      <c r="BF17" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2503,11 +2674,15 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
+      <c r="AH18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
@@ -2516,9 +2691,15 @@
       <c r="AO18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
+      <c r="AR18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT18" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
@@ -2534,7 +2715,7 @@
     </row>
     <row r="19" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2567,7 +2748,7 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
@@ -2598,7 +2779,7 @@
     </row>
     <row r="20" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2631,7 +2812,7 @@
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
@@ -2662,7 +2843,7 @@
     </row>
     <row r="21" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2672,19 +2853,13 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -2700,7 +2875,9 @@
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
+      <c r="AF21" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
@@ -2709,12 +2886,8 @@
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP21" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
@@ -2734,7 +2907,7 @@
     </row>
     <row r="22" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2744,13 +2917,19 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="P22" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -2760,9 +2939,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
@@ -2777,8 +2954,12 @@
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
+      <c r="AO22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP22" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
@@ -2798,7 +2979,7 @@
     </row>
     <row r="23" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2824,16 +3005,16 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
+      <c r="Z23" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AG23" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
@@ -2862,7 +3043,7 @@
     </row>
     <row r="24" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2894,10 +3075,10 @@
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
-      <c r="AF24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
@@ -2926,11 +3107,9 @@
     </row>
     <row r="25" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2960,7 +3139,9 @@
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
+      <c r="AF25" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
@@ -2990,10 +3171,10 @@
     </row>
     <row r="26" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -3018,30 +3199,16 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-      <c r="AD26" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
-      <c r="AH26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI26" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
@@ -3068,10 +3235,10 @@
     </row>
     <row r="27" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -3097,28 +3264,28 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI27" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
@@ -3146,18 +3313,14 @@
     </row>
     <row r="28" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3178,16 +3341,30 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
+      <c r="Z28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
+      <c r="AD28" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
+      <c r="AF28" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
+      <c r="AH28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
@@ -3195,9 +3372,7 @@
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
-      <c r="AQ28" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
@@ -3216,14 +3391,18 @@
     </row>
     <row r="29" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -3261,7 +3440,9 @@
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
+      <c r="AQ29" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="AR29" s="3"/>
       <c r="AS29" s="3"/>
       <c r="AT29" s="3"/>
@@ -3280,26 +3461,18 @@
     </row>
     <row r="30" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3316,39 +3489,21 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-      <c r="Z30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB30" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
-      <c r="AD30" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
-      <c r="AF30" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
-      <c r="AH30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI30" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
-      <c r="AM30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN30" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
@@ -3370,16 +3525,26 @@
     </row>
     <row r="31" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3393,26 +3558,42 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
+      <c r="Z31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
+      <c r="AD31" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
+      <c r="AF31" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
+      <c r="AH31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI31" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="3"/>
+      <c r="AM31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN31" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
       <c r="AQ31" s="3"/>
@@ -3434,7 +3615,7 @@
     </row>
     <row r="32" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3458,7 +3639,7 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
@@ -3496,9 +3677,9 @@
       <c r="BE32" s="3"/>
       <c r="BF32" s="3"/>
     </row>
-    <row r="33" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3508,12 +3689,8 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -3525,7 +3702,9 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
+      <c r="W33" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
@@ -3543,9 +3722,7 @@
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
-      <c r="AO33" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="AO33" s="3"/>
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
@@ -3564,9 +3741,9 @@
       <c r="BE33" s="3"/>
       <c r="BF33" s="3"/>
     </row>
-    <row r="34" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3577,10 +3754,10 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -3611,7 +3788,9 @@
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
+      <c r="AO34" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="AP34" s="3"/>
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
@@ -3630,9 +3809,9 @@
       <c r="BE34" s="3"/>
       <c r="BF34" s="3"/>
     </row>
-    <row r="35" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3643,10 +3822,10 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -3696,9 +3875,9 @@
       <c r="BE35" s="3"/>
       <c r="BF35" s="3"/>
     </row>
-    <row r="36" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3709,10 +3888,10 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -3762,9 +3941,9 @@
       <c r="BE36" s="3"/>
       <c r="BF36" s="3"/>
     </row>
-    <row r="37" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3775,18 +3954,16 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -3811,12 +3988,8 @@
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
-      <c r="AO37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP37" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
       <c r="AR37" s="3"/>
       <c r="AS37" s="3"/>
@@ -3834,13 +4007,11 @@
       <c r="BE37" s="3"/>
       <c r="BF37" s="3"/>
     </row>
-    <row r="38" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>135</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -3848,13 +4019,19 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="J38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="P38" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -3864,37 +4041,27 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA38" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB38" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
-      <c r="AD38" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
-      <c r="AF38" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
-      <c r="AH38" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI38" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
-      <c r="AO38" s="3"/>
-      <c r="AP38" s="3"/>
+      <c r="AO38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP38" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
       <c r="AS38" s="3"/>
@@ -3912,11 +4079,13 @@
       <c r="BE38" s="3"/>
       <c r="BF38" s="3"/>
     </row>
-    <row r="39" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3938,20 +4107,32 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-      <c r="X39" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
+      <c r="Z39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
+      <c r="AD39" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
+      <c r="AF39" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
+      <c r="AH39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI39" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
@@ -3976,9 +4157,9 @@
       <c r="BE39" s="3"/>
       <c r="BF39" s="3"/>
     </row>
-    <row r="40" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4040,13 +4221,11 @@
       <c r="BE40" s="3"/>
       <c r="BF40" s="3"/>
     </row>
-    <row r="41" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>136</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4068,32 +4247,20 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
+      <c r="X41" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Y41" s="3"/>
-      <c r="Z41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB41" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
-      <c r="AD41" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
-      <c r="AF41" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
-      <c r="AH41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI41" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
@@ -4118,12 +4285,12 @@
       <c r="BE41" s="3"/>
       <c r="BF41" s="3"/>
     </row>
-    <row r="42" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -4149,28 +4316,28 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE42" s="3"/>
       <c r="AF42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG42" s="3"/>
       <c r="AH42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
@@ -4196,11 +4363,13 @@
       <c r="BE42" s="3"/>
       <c r="BF42" s="3"/>
     </row>
-    <row r="43" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4223,19 +4392,31 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-      <c r="Y43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
+      <c r="AD43" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
+      <c r="AF43" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
+      <c r="AH43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI43" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
@@ -4260,9 +4441,9 @@
       <c r="BE43" s="3"/>
       <c r="BF43" s="3"/>
     </row>
-    <row r="44" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4288,7 +4469,7 @@
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
@@ -4324,28 +4505,18 @@
       <c r="BE44" s="3"/>
       <c r="BF44" s="3"/>
     </row>
-    <row r="45" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -4361,49 +4532,31 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="Y45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
       <c r="AC45" s="3"/>
-      <c r="AD45" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
-      <c r="AF45" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AF45" s="3"/>
       <c r="AG45" s="3"/>
-      <c r="AH45" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI45" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
-      <c r="AM45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN45" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
       <c r="AQ45" s="3"/>
       <c r="AR45" s="3"/>
       <c r="AS45" s="3"/>
       <c r="AT45" s="3"/>
-      <c r="AU45" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
       <c r="AW45" s="3"/>
       <c r="AX45" s="3"/>
@@ -4416,9 +4569,9 @@
       <c r="BE45" s="3"/>
       <c r="BF45" s="3"/>
     </row>
-    <row r="46" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>103</v>
@@ -4494,7 +4647,7 @@
       <c r="AS46" s="3"/>
       <c r="AT46" s="3"/>
       <c r="AU46" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="AV46" s="3"/>
       <c r="AW46" s="3"/>
@@ -4508,18 +4661,28 @@
       <c r="BE46" s="3"/>
       <c r="BF46" s="3"/>
     </row>
-    <row r="47" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -4537,29 +4700,47 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
+      <c r="AD47" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
+      <c r="AF47" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AG47" s="3"/>
-      <c r="AH47" s="3"/>
-      <c r="AI47" s="3"/>
+      <c r="AH47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI47" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
-      <c r="AM47" s="3"/>
-      <c r="AN47" s="3"/>
+      <c r="AM47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN47" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
       <c r="AQ47" s="3"/>
       <c r="AR47" s="3"/>
       <c r="AS47" s="3"/>
       <c r="AT47" s="3"/>
-      <c r="AU47" s="3"/>
+      <c r="AU47" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="AV47" s="3"/>
       <c r="AW47" s="3"/>
       <c r="AX47" s="3"/>
@@ -4572,13 +4753,11 @@
       <c r="BE47" s="3"/>
       <c r="BF47" s="3"/>
     </row>
-    <row r="48" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4603,18 +4782,12 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB48" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
-      <c r="AD48" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="3"/>
@@ -4632,72 +4805,25 @@
       <c r="AS48" s="3"/>
       <c r="AT48" s="3"/>
       <c r="AU48" s="3"/>
-      <c r="AV48" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="AV48" s="3"/>
       <c r="AW48" s="3"/>
       <c r="AX48" s="3"/>
       <c r="AY48" s="3"/>
-      <c r="AZ48" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="AZ48" s="3"/>
       <c r="BA48" s="3"/>
       <c r="BB48" s="3"/>
       <c r="BC48" s="3"/>
       <c r="BD48" s="3"/>
       <c r="BE48" s="3"/>
       <c r="BF48" s="3"/>
-      <c r="BG48" s="4"/>
-      <c r="BH48" s="4"/>
-      <c r="BI48" s="4"/>
-      <c r="BJ48" s="4"/>
-      <c r="BK48" s="4"/>
-      <c r="BL48" s="4"/>
-      <c r="BM48" s="4"/>
-      <c r="BN48" s="4"/>
-      <c r="BO48" s="4"/>
-      <c r="BP48" s="4"/>
-      <c r="BQ48" s="4"/>
-      <c r="BR48" s="4"/>
-      <c r="BS48" s="4"/>
-      <c r="BT48" s="4"/>
-      <c r="BU48" s="4"/>
-      <c r="BV48" s="4"/>
-      <c r="BW48" s="4"/>
-      <c r="BX48" s="4"/>
-      <c r="BY48" s="4"/>
-      <c r="BZ48" s="4"/>
-      <c r="CA48" s="4"/>
-      <c r="CB48" s="4"/>
-      <c r="CC48" s="4"/>
-      <c r="CD48" s="4"/>
-      <c r="CE48" s="4"/>
-      <c r="CF48" s="4"/>
-      <c r="CG48" s="4"/>
-      <c r="CH48" s="4"/>
-      <c r="CI48" s="4"/>
-      <c r="CJ48" s="4"/>
-      <c r="CK48" s="4"/>
-      <c r="CL48" s="4"/>
-      <c r="CM48" s="4"/>
-      <c r="CN48" s="4"/>
-      <c r="CO48" s="4"/>
-      <c r="CP48" s="4"/>
-      <c r="CQ48" s="4"/>
-      <c r="CR48" s="4"/>
-      <c r="CS48" s="4"/>
-      <c r="CT48" s="4"/>
-      <c r="CU48" s="4"/>
-      <c r="CV48" s="4"/>
-      <c r="CW48" s="4"/>
-      <c r="CX48" s="4"/>
-      <c r="CY48" s="4"/>
     </row>
     <row r="49" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4722,12 +4848,18 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
+      <c r="AD49" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="3"/>
@@ -4745,11 +4877,15 @@
       <c r="AS49" s="3"/>
       <c r="AT49" s="3"/>
       <c r="AU49" s="3"/>
-      <c r="AV49" s="3"/>
+      <c r="AV49" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="AW49" s="3"/>
       <c r="AX49" s="3"/>
       <c r="AY49" s="3"/>
-      <c r="AZ49" s="3"/>
+      <c r="AZ49" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
       <c r="BC49" s="3"/>
@@ -4804,7 +4940,7 @@
     </row>
     <row r="50" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4831,7 +4967,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="3" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
@@ -4913,7 +5049,7 @@
     </row>
     <row r="51" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4940,7 +5076,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
@@ -5022,7 +5158,7 @@
     </row>
     <row r="52" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5038,21 +5174,19 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-      <c r="W52" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
+      <c r="Z52" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
       <c r="AC52" s="3"/>
@@ -5075,12 +5209,8 @@
       <c r="AT52" s="3"/>
       <c r="AU52" s="3"/>
       <c r="AV52" s="3"/>
-      <c r="AW52" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX52" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="AW52" s="3"/>
+      <c r="AX52" s="3"/>
       <c r="AY52" s="3"/>
       <c r="AZ52" s="3"/>
       <c r="BA52" s="3"/>
@@ -5137,7 +5267,7 @@
     </row>
     <row r="53" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5153,18 +5283,20 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
+      <c r="P53" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
+      <c r="W53" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="X53" s="3"/>
-      <c r="Y53" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
@@ -5188,8 +5320,12 @@
       <c r="AT53" s="3"/>
       <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
-      <c r="AW53" s="3"/>
-      <c r="AX53" s="3"/>
+      <c r="AW53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX53" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="AY53" s="3"/>
       <c r="AZ53" s="3"/>
       <c r="BA53" s="3"/>
@@ -5246,7 +5382,7 @@
     </row>
     <row r="54" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5269,11 +5405,11 @@
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-      <c r="W54" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
+      <c r="Y54" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
@@ -5355,7 +5491,7 @@
     </row>
     <row r="55" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5379,7 +5515,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
@@ -5416,12 +5552,12 @@
       <c r="BD55" s="3"/>
       <c r="BE55" s="3"/>
       <c r="BF55" s="3"/>
-      <c r="BG55" s="5"/>
-      <c r="BH55" s="5"/>
-      <c r="BI55" s="5"/>
-      <c r="BJ55" s="5"/>
-      <c r="BK55" s="5"/>
-      <c r="BL55" s="5"/>
+      <c r="BG55" s="4"/>
+      <c r="BH55" s="4"/>
+      <c r="BI55" s="4"/>
+      <c r="BJ55" s="4"/>
+      <c r="BK55" s="4"/>
+      <c r="BL55" s="4"/>
       <c r="BM55" s="4"/>
       <c r="BN55" s="4"/>
       <c r="BO55" s="4"/>
@@ -5462,9 +5598,9 @@
       <c r="CX55" s="4"/>
       <c r="CY55" s="4"/>
     </row>
-    <row r="56" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5488,7 +5624,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
@@ -5525,27 +5661,27 @@
       <c r="BD56" s="3"/>
       <c r="BE56" s="3"/>
       <c r="BF56" s="3"/>
-      <c r="BG56" s="3"/>
-      <c r="BH56" s="3"/>
-      <c r="BI56" s="3"/>
-      <c r="BJ56" s="3"/>
-      <c r="BK56" s="3"/>
-      <c r="BL56" s="3"/>
-      <c r="BM56" s="7"/>
-      <c r="BN56" s="7"/>
-      <c r="BO56" s="7"/>
-      <c r="BP56" s="7"/>
-      <c r="BQ56" s="7"/>
-      <c r="BR56" s="7"/>
-      <c r="BS56" s="7"/>
-      <c r="BT56" s="7"/>
-      <c r="BU56" s="7"/>
-      <c r="BV56" s="7"/>
-      <c r="BW56" s="7"/>
-      <c r="BX56" s="7"/>
-      <c r="BY56" s="7"/>
-      <c r="BZ56" s="7"/>
-      <c r="CA56" s="7"/>
+      <c r="BG56" s="5"/>
+      <c r="BH56" s="5"/>
+      <c r="BI56" s="5"/>
+      <c r="BJ56" s="5"/>
+      <c r="BK56" s="5"/>
+      <c r="BL56" s="5"/>
+      <c r="BM56" s="4"/>
+      <c r="BN56" s="4"/>
+      <c r="BO56" s="4"/>
+      <c r="BP56" s="4"/>
+      <c r="BQ56" s="4"/>
+      <c r="BR56" s="4"/>
+      <c r="BS56" s="4"/>
+      <c r="BT56" s="4"/>
+      <c r="BU56" s="4"/>
+      <c r="BV56" s="4"/>
+      <c r="BW56" s="4"/>
+      <c r="BX56" s="4"/>
+      <c r="BY56" s="4"/>
+      <c r="BZ56" s="4"/>
+      <c r="CA56" s="4"/>
       <c r="CB56" s="4"/>
       <c r="CC56" s="4"/>
       <c r="CD56" s="4"/>
@@ -5573,7 +5709,7 @@
     </row>
     <row r="57" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5596,7 +5732,9 @@
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
+      <c r="W57" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
@@ -5605,16 +5743,10 @@
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
-      <c r="AF57" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="AF57" s="3"/>
       <c r="AG57" s="3"/>
-      <c r="AH57" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI57" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="AH57" s="3"/>
+      <c r="AI57" s="3"/>
       <c r="AJ57" s="3"/>
       <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
@@ -5686,11 +5818,9 @@
     </row>
     <row r="58" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5714,24 +5844,22 @@
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
-      <c r="Z58" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
-      <c r="AD58" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
+      <c r="AF58" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="AG58" s="3"/>
-      <c r="AH58" s="3"/>
-      <c r="AI58" s="3"/>
+      <c r="AH58" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI58" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="AJ58" s="3"/>
       <c r="AK58" s="3"/>
       <c r="AL58" s="3"/>
@@ -5744,15 +5872,11 @@
       <c r="AS58" s="3"/>
       <c r="AT58" s="3"/>
       <c r="AU58" s="3"/>
-      <c r="AV58" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="AV58" s="3"/>
       <c r="AW58" s="3"/>
       <c r="AX58" s="3"/>
       <c r="AY58" s="3"/>
-      <c r="AZ58" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="AZ58" s="3"/>
       <c r="BA58" s="3"/>
       <c r="BB58" s="3"/>
       <c r="BC58" s="3"/>
@@ -5807,10 +5931,10 @@
     </row>
     <row r="59" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -5836,17 +5960,17 @@
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="AA59" s="3" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="AB59" s="3" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="AC59" s="3"/>
       <c r="AD59" s="3" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="AE59" s="3"/>
       <c r="AF59" s="3"/>
@@ -5865,11 +5989,15 @@
       <c r="AS59" s="3"/>
       <c r="AT59" s="3"/>
       <c r="AU59" s="3"/>
-      <c r="AV59" s="3"/>
+      <c r="AV59" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="AW59" s="3"/>
       <c r="AX59" s="3"/>
       <c r="AY59" s="3"/>
-      <c r="AZ59" s="3"/>
+      <c r="AZ59" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="BA59" s="3"/>
       <c r="BB59" s="3"/>
       <c r="BC59" s="3"/>
@@ -5924,9 +6052,11 @@
     </row>
     <row r="60" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B60" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5948,15 +6078,21 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-      <c r="X60" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
+      <c r="Z60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
+      <c r="AD60" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="AE60" s="3"/>
       <c r="AF60" s="3"/>
       <c r="AG60" s="3"/>
@@ -6033,32 +6169,20 @@
     </row>
     <row r="61" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -6068,17 +6192,15 @@
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-      <c r="W61" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="X61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
-      <c r="AC61" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
       <c r="AF61" s="3"/>
@@ -6100,28 +6222,18 @@
       <c r="AV61" s="3"/>
       <c r="AW61" s="3"/>
       <c r="AX61" s="3"/>
-      <c r="AY61" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="AY61" s="3"/>
       <c r="AZ61" s="3"/>
       <c r="BA61" s="3"/>
       <c r="BB61" s="3"/>
-      <c r="BC61" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BD61" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BE61" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="BC61" s="3"/>
+      <c r="BD61" s="3"/>
+      <c r="BE61" s="3"/>
       <c r="BF61" s="3"/>
       <c r="BG61" s="3"/>
       <c r="BH61" s="3"/>
       <c r="BI61" s="3"/>
-      <c r="BJ61" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="BJ61" s="3"/>
       <c r="BK61" s="3"/>
       <c r="BL61" s="3"/>
       <c r="BM61" s="7"/>
@@ -6166,22 +6278,32 @@
     </row>
     <row r="62" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="L62" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
@@ -6191,22 +6313,18 @@
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
+      <c r="W62" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
-      <c r="Z62" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA62" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB62" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
       <c r="AG62" s="3"/>
@@ -6224,25 +6342,31 @@
       <c r="AS62" s="3"/>
       <c r="AT62" s="3"/>
       <c r="AU62" s="3"/>
-      <c r="AV62" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="AV62" s="3"/>
       <c r="AW62" s="3"/>
       <c r="AX62" s="3"/>
-      <c r="AY62" s="3"/>
-      <c r="AZ62" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="AY62" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ62" s="3"/>
       <c r="BA62" s="3"/>
       <c r="BB62" s="3"/>
-      <c r="BC62" s="3"/>
-      <c r="BD62" s="3"/>
-      <c r="BE62" s="3"/>
+      <c r="BC62" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE62" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="BF62" s="3"/>
       <c r="BG62" s="3"/>
       <c r="BH62" s="3"/>
       <c r="BI62" s="3"/>
-      <c r="BJ62" s="3"/>
+      <c r="BJ62" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="BK62" s="3"/>
       <c r="BL62" s="3"/>
       <c r="BM62" s="7"/>
@@ -6287,16 +6411,14 @@
     </row>
     <row r="63" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -6315,15 +6437,21 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-      <c r="X63" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
+      <c r="Z63" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA63" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB63" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
+      <c r="AD63" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
       <c r="AG63" s="3"/>
@@ -6341,11 +6469,15 @@
       <c r="AS63" s="3"/>
       <c r="AT63" s="3"/>
       <c r="AU63" s="3"/>
-      <c r="AV63" s="3"/>
+      <c r="AV63" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="AW63" s="3"/>
       <c r="AX63" s="3"/>
       <c r="AY63" s="3"/>
-      <c r="AZ63" s="3"/>
+      <c r="AZ63" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="BA63" s="3"/>
       <c r="BB63" s="3"/>
       <c r="BC63" s="3"/>
@@ -6353,9 +6485,7 @@
       <c r="BE63" s="3"/>
       <c r="BF63" s="3"/>
       <c r="BG63" s="3"/>
-      <c r="BH63" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="BH63" s="3"/>
       <c r="BI63" s="3"/>
       <c r="BJ63" s="3"/>
       <c r="BK63" s="3"/>
@@ -6402,19 +6532,15 @@
     </row>
     <row r="64" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>172</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -6434,7 +6560,9 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
+      <c r="X64" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
@@ -6463,18 +6591,16 @@
       <c r="AX64" s="3"/>
       <c r="AY64" s="3"/>
       <c r="AZ64" s="3"/>
-      <c r="BA64" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="BA64" s="3"/>
       <c r="BB64" s="3"/>
       <c r="BC64" s="3"/>
       <c r="BD64" s="3"/>
       <c r="BE64" s="3"/>
       <c r="BF64" s="3"/>
-      <c r="BG64" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BH64" s="3"/>
+      <c r="BG64" s="3"/>
+      <c r="BH64" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="BI64" s="3"/>
       <c r="BJ64" s="3"/>
       <c r="BK64" s="3"/>
@@ -6521,7 +6647,7 @@
     </row>
     <row r="65" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>170</v>
@@ -6583,7 +6709,7 @@
       <c r="AY65" s="3"/>
       <c r="AZ65" s="3"/>
       <c r="BA65" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BB65" s="3"/>
       <c r="BC65" s="3"/>
@@ -6640,12 +6766,20 @@
     </row>
     <row r="66" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+        <v>147</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -6666,9 +6800,7 @@
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
-      <c r="Z66" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
       <c r="AC66" s="3"/>
@@ -6695,13 +6827,17 @@
       <c r="AX66" s="3"/>
       <c r="AY66" s="3"/>
       <c r="AZ66" s="3"/>
-      <c r="BA66" s="3"/>
+      <c r="BA66" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="BB66" s="3"/>
       <c r="BC66" s="3"/>
       <c r="BD66" s="3"/>
       <c r="BE66" s="3"/>
       <c r="BF66" s="3"/>
-      <c r="BG66" s="3"/>
+      <c r="BG66" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="BH66" s="3"/>
       <c r="BI66" s="3"/>
       <c r="BJ66" s="3"/>
@@ -6749,7 +6885,7 @@
     </row>
     <row r="67" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -6760,9 +6896,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="3" t="s">
-        <v>177</v>
-      </c>
+      <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -6777,7 +6911,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
+      <c r="Z67" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
@@ -6858,7 +6994,7 @@
     </row>
     <row r="68" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -6870,7 +7006,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -6967,7 +7103,7 @@
     </row>
     <row r="69" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -6979,7 +7115,7 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -7076,7 +7212,7 @@
     </row>
     <row r="70" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -7087,7 +7223,9 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
+      <c r="K70" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -7099,9 +7237,7 @@
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
-      <c r="W70" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="W70" s="3"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
@@ -7183,108 +7319,118 @@
       <c r="CX70" s="4"/>
       <c r="CY70" s="4"/>
     </row>
-    <row r="71" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="X71" s="8"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="8"/>
-      <c r="AA71" s="8"/>
-      <c r="AB71" s="8"/>
-      <c r="AC71" s="8"/>
-      <c r="AD71" s="8"/>
-      <c r="AE71" s="8"/>
-      <c r="AF71" s="8"/>
-      <c r="AG71" s="8"/>
-      <c r="AH71" s="8"/>
-      <c r="AI71" s="8"/>
-      <c r="AJ71" s="8"/>
-      <c r="AK71" s="8"/>
-      <c r="AL71" s="8"/>
-      <c r="AM71" s="8"/>
-      <c r="AN71" s="8"/>
-      <c r="AO71" s="8"/>
-      <c r="AP71" s="8"/>
-      <c r="AQ71" s="8"/>
-      <c r="AR71" s="8"/>
-      <c r="AS71" s="8"/>
-      <c r="AT71" s="8"/>
-      <c r="AU71" s="8"/>
-      <c r="AV71" s="8"/>
-      <c r="AW71" s="8"/>
-      <c r="AX71" s="8"/>
-      <c r="AY71" s="8"/>
-      <c r="AZ71" s="8"/>
-      <c r="BA71" s="8"/>
-      <c r="BB71" s="8"/>
-      <c r="BC71" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BD71" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BE71" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BF71" s="8"/>
-      <c r="BG71" s="8"/>
-      <c r="BH71" s="8"/>
-      <c r="BI71" s="8"/>
-      <c r="BJ71" s="8"/>
-      <c r="BK71" s="8"/>
-      <c r="BL71" s="8"/>
-      <c r="BM71" s="9"/>
-      <c r="BN71" s="9"/>
-      <c r="BO71" s="9"/>
-      <c r="BP71" s="9"/>
-      <c r="BQ71" s="9"/>
-      <c r="BR71" s="9"/>
-      <c r="BS71" s="9"/>
-      <c r="BT71" s="9"/>
-      <c r="BU71" s="9"/>
-      <c r="BV71" s="9"/>
-      <c r="BW71" s="9"/>
-      <c r="BX71" s="9"/>
-      <c r="BY71" s="9"/>
-      <c r="BZ71" s="9"/>
-      <c r="CA71" s="9"/>
+        <v>153</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+      <c r="AG71" s="3"/>
+      <c r="AH71" s="3"/>
+      <c r="AI71" s="3"/>
+      <c r="AJ71" s="3"/>
+      <c r="AK71" s="3"/>
+      <c r="AL71" s="3"/>
+      <c r="AM71" s="3"/>
+      <c r="AN71" s="3"/>
+      <c r="AO71" s="3"/>
+      <c r="AP71" s="3"/>
+      <c r="AQ71" s="3"/>
+      <c r="AR71" s="3"/>
+      <c r="AS71" s="3"/>
+      <c r="AT71" s="3"/>
+      <c r="AU71" s="3"/>
+      <c r="AV71" s="3"/>
+      <c r="AW71" s="3"/>
+      <c r="AX71" s="3"/>
+      <c r="AY71" s="3"/>
+      <c r="AZ71" s="3"/>
+      <c r="BA71" s="3"/>
+      <c r="BB71" s="3"/>
+      <c r="BC71" s="3"/>
+      <c r="BD71" s="3"/>
+      <c r="BE71" s="3"/>
+      <c r="BF71" s="3"/>
+      <c r="BG71" s="3"/>
+      <c r="BH71" s="3"/>
+      <c r="BI71" s="3"/>
+      <c r="BJ71" s="3"/>
+      <c r="BK71" s="3"/>
+      <c r="BL71" s="3"/>
+      <c r="BM71" s="7"/>
+      <c r="BN71" s="7"/>
+      <c r="BO71" s="7"/>
+      <c r="BP71" s="7"/>
+      <c r="BQ71" s="7"/>
+      <c r="BR71" s="7"/>
+      <c r="BS71" s="7"/>
+      <c r="BT71" s="7"/>
+      <c r="BU71" s="7"/>
+      <c r="BV71" s="7"/>
+      <c r="BW71" s="7"/>
+      <c r="BX71" s="7"/>
+      <c r="BY71" s="7"/>
+      <c r="BZ71" s="7"/>
+      <c r="CA71" s="7"/>
+      <c r="CB71" s="4"/>
+      <c r="CC71" s="4"/>
+      <c r="CD71" s="4"/>
+      <c r="CE71" s="4"/>
+      <c r="CF71" s="4"/>
+      <c r="CG71" s="4"/>
+      <c r="CH71" s="4"/>
+      <c r="CI71" s="4"/>
+      <c r="CJ71" s="4"/>
+      <c r="CK71" s="4"/>
+      <c r="CL71" s="4"/>
+      <c r="CM71" s="4"/>
+      <c r="CN71" s="4"/>
+      <c r="CO71" s="4"/>
+      <c r="CP71" s="4"/>
+      <c r="CQ71" s="4"/>
+      <c r="CR71" s="4"/>
+      <c r="CS71" s="4"/>
+      <c r="CT71" s="4"/>
+      <c r="CU71" s="4"/>
+      <c r="CV71" s="4"/>
+      <c r="CW71" s="4"/>
+      <c r="CX71" s="4"/>
+      <c r="CY71" s="4"/>
     </row>
     <row r="72" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A72" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>160</v>
@@ -7350,7 +7496,7 @@
       <c r="BA72" s="8"/>
       <c r="BB72" s="8"/>
       <c r="BC72" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BD72" s="1" t="s">
         <v>158</v>
@@ -7383,26 +7529,28 @@
     </row>
     <row r="73" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A73" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+        <v>155</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
-      <c r="K73" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
@@ -7412,7 +7560,9 @@
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
+      <c r="W73" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
@@ -7444,9 +7594,15 @@
       <c r="AZ73" s="8"/>
       <c r="BA73" s="8"/>
       <c r="BB73" s="8"/>
-      <c r="BC73" s="8"/>
-      <c r="BD73" s="8"/>
-      <c r="BE73" s="8"/>
+      <c r="BC73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE73" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="BF73" s="8"/>
       <c r="BG73" s="8"/>
       <c r="BH73" s="8"/>
@@ -7472,7 +7628,7 @@
     </row>
     <row r="74" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -7484,20 +7640,16 @@
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
@@ -7506,9 +7658,7 @@
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
       <c r="W74" s="8"/>
-      <c r="X74" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
       <c r="AA74" s="8"/>
@@ -7567,7 +7717,7 @@
     </row>
     <row r="75" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A75" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -7579,19 +7729,19 @@
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
@@ -7602,7 +7752,7 @@
       <c r="V75" s="8"/>
       <c r="W75" s="8"/>
       <c r="X75" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Y75" s="8"/>
       <c r="Z75" s="8"/>
@@ -7662,7 +7812,7 @@
     </row>
     <row r="76" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A76" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -7674,19 +7824,19 @@
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
@@ -7697,7 +7847,7 @@
       <c r="V76" s="8"/>
       <c r="W76" s="8"/>
       <c r="X76" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
@@ -7757,7 +7907,7 @@
     </row>
     <row r="77" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A77" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -7769,19 +7919,19 @@
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
@@ -7792,7 +7942,7 @@
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
       <c r="X77" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y77" s="8"/>
       <c r="Z77" s="8"/>
@@ -7852,7 +8002,7 @@
     </row>
     <row r="78" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A78" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -7864,19 +8014,19 @@
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
@@ -7887,7 +8037,7 @@
       <c r="V78" s="8"/>
       <c r="W78" s="8"/>
       <c r="X78" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
@@ -7947,7 +8097,7 @@
     </row>
     <row r="79" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A79" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -7959,19 +8109,19 @@
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
@@ -7982,7 +8132,7 @@
       <c r="V79" s="8"/>
       <c r="W79" s="8"/>
       <c r="X79" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
@@ -8042,30 +8192,32 @@
     </row>
     <row r="80" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A80" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E80" s="1" t="s">
         <v>163</v>
       </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
+      <c r="K80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
@@ -8073,10 +8225,10 @@
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
-      <c r="W80" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="X80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="Y80" s="8"/>
       <c r="Z80" s="8"/>
       <c r="AA80" s="8"/>
@@ -8107,15 +8259,9 @@
       <c r="AZ80" s="8"/>
       <c r="BA80" s="8"/>
       <c r="BB80" s="8"/>
-      <c r="BC80" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BD80" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BE80" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="BC80" s="8"/>
+      <c r="BD80" s="8"/>
+      <c r="BE80" s="8"/>
       <c r="BF80" s="8"/>
       <c r="BG80" s="8"/>
       <c r="BH80" s="8"/>
@@ -8141,12 +8287,20 @@
     </row>
     <row r="81" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A81" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
+        <v>164</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
@@ -8164,12 +8318,12 @@
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
       <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
+      <c r="W81" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
-      <c r="Z81" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="Z81" s="8"/>
       <c r="AA81" s="8"/>
       <c r="AB81" s="8"/>
       <c r="AC81" s="8"/>
@@ -8198,9 +8352,15 @@
       <c r="AZ81" s="8"/>
       <c r="BA81" s="8"/>
       <c r="BB81" s="8"/>
-      <c r="BC81" s="8"/>
-      <c r="BD81" s="8"/>
-      <c r="BE81" s="8"/>
+      <c r="BC81" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE81" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="BF81" s="8"/>
       <c r="BG81" s="8"/>
       <c r="BH81" s="8"/>
@@ -8226,7 +8386,7 @@
     </row>
     <row r="82" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A82" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -8250,11 +8410,11 @@
       <c r="U82" s="8"/>
       <c r="V82" s="8"/>
       <c r="W82" s="8"/>
-      <c r="X82" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
-      <c r="Z82" s="8"/>
+      <c r="Z82" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="AA82" s="8"/>
       <c r="AB82" s="8"/>
       <c r="AC82" s="8"/>
@@ -8311,7 +8471,7 @@
     </row>
     <row r="83" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A83" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -8323,9 +8483,7 @@
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
-      <c r="L83" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="L83" s="8"/>
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
@@ -8338,7 +8496,7 @@
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
       <c r="X83" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Y83" s="8"/>
       <c r="Z83" s="8"/>
@@ -8376,9 +8534,7 @@
       <c r="BF83" s="8"/>
       <c r="BG83" s="8"/>
       <c r="BH83" s="8"/>
-      <c r="BI83" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="BI83" s="8"/>
       <c r="BJ83" s="8"/>
       <c r="BK83" s="8"/>
       <c r="BL83" s="8"/>
@@ -8400,7 +8556,7 @@
     </row>
     <row r="84" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A84" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -8466,7 +8622,7 @@
       <c r="BG84" s="8"/>
       <c r="BH84" s="8"/>
       <c r="BI84" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BJ84" s="8"/>
       <c r="BK84" s="8"/>
@@ -8489,7 +8645,7 @@
     </row>
     <row r="85" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -8501,7 +8657,9 @@
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
+      <c r="L85" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="M85" s="8"/>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
@@ -8514,7 +8672,7 @@
       <c r="V85" s="8"/>
       <c r="W85" s="8"/>
       <c r="X85" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Y85" s="8"/>
       <c r="Z85" s="8"/>
@@ -8552,7 +8710,9 @@
       <c r="BF85" s="8"/>
       <c r="BG85" s="8"/>
       <c r="BH85" s="8"/>
-      <c r="BI85" s="8"/>
+      <c r="BI85" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="BJ85" s="8"/>
       <c r="BK85" s="8"/>
       <c r="BL85" s="8"/>
@@ -8574,7 +8734,7 @@
     </row>
     <row r="86" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A86" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -8591,26 +8751,16 @@
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
-      <c r="Q86" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="T86" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="U86" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="V86" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
       <c r="W86" s="8"/>
-      <c r="X86" s="8"/>
+      <c r="X86" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
       <c r="AA86" s="8"/>
@@ -8640,9 +8790,7 @@
       <c r="AY86" s="8"/>
       <c r="AZ86" s="8"/>
       <c r="BA86" s="8"/>
-      <c r="BB86" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="BB86" s="8"/>
       <c r="BC86" s="8"/>
       <c r="BD86" s="8"/>
       <c r="BE86" s="8"/>
@@ -8671,7 +8819,7 @@
     </row>
     <row r="87" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A87" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -8689,27 +8837,25 @@
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
       <c r="Q87" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="W87" s="1"/>
-      <c r="X87" s="1" t="s">
-        <v>211</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
       <c r="AA87" s="8"/>
@@ -8739,7 +8885,9 @@
       <c r="AY87" s="8"/>
       <c r="AZ87" s="8"/>
       <c r="BA87" s="8"/>
-      <c r="BB87" s="8"/>
+      <c r="BB87" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="BC87" s="8"/>
       <c r="BD87" s="8"/>
       <c r="BE87" s="8"/>
@@ -8768,7 +8916,7 @@
     </row>
     <row r="88" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A88" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -8786,26 +8934,26 @@
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
       <c r="Q88" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T88" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V88" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W88" s="1"/>
       <c r="X88" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
@@ -8865,7 +9013,7 @@
     </row>
     <row r="89" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A89" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -8883,26 +9031,26 @@
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="W89" s="8"/>
+        <v>212</v>
+      </c>
+      <c r="W89" s="1"/>
       <c r="X89" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y89" s="8"/>
       <c r="Z89" s="8"/>
@@ -8962,7 +9110,7 @@
     </row>
     <row r="90" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A90" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -8980,26 +9128,26 @@
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W90" s="8"/>
       <c r="X90" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y90" s="8"/>
       <c r="Z90" s="8"/>
@@ -9059,7 +9207,7 @@
     </row>
     <row r="91" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A91" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -9076,15 +9224,27 @@
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="8"/>
+      <c r="Q91" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="T91" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="U91" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="V91" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="W91" s="8"/>
       <c r="X91" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y91" s="8"/>
       <c r="Z91" s="8"/>
@@ -9144,11 +9304,9 @@
     </row>
     <row r="92" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A92" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>216</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -9170,21 +9328,15 @@
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
-      <c r="X92" s="8"/>
+      <c r="X92" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="Y92" s="8"/>
-      <c r="Z92" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA92" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB92" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC92" s="1"/>
-      <c r="AD92" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="8"/>
+      <c r="AB92" s="8"/>
+      <c r="AC92" s="8"/>
+      <c r="AD92" s="8"/>
       <c r="AE92" s="8"/>
       <c r="AF92" s="8"/>
       <c r="AG92" s="8"/>
@@ -9237,10 +9389,10 @@
     </row>
     <row r="93" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A93" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -9266,17 +9418,17 @@
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
       <c r="Z93" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AA93" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC93" s="8"/>
+        <v>216</v>
+      </c>
+      <c r="AC93" s="1"/>
       <c r="AD93" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE93" s="8"/>
       <c r="AF93" s="8"/>
@@ -9330,9 +9482,11 @@
     </row>
     <row r="94" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A94" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B94" s="8"/>
+        <v>178</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -9354,15 +9508,21 @@
       <c r="U94" s="8"/>
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
-      <c r="X94" s="1" t="s">
-        <v>218</v>
-      </c>
+      <c r="X94" s="8"/>
       <c r="Y94" s="8"/>
-      <c r="Z94" s="8"/>
-      <c r="AA94" s="8"/>
-      <c r="AB94" s="8"/>
+      <c r="Z94" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA94" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB94" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="AC94" s="8"/>
-      <c r="AD94" s="8"/>
+      <c r="AD94" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="AE94" s="8"/>
       <c r="AF94" s="8"/>
       <c r="AG94" s="8"/>
@@ -9415,7 +9575,7 @@
     </row>
     <row r="95" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A95" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -9426,15 +9586,9 @@
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
-      <c r="K95" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
@@ -9445,7 +9599,9 @@
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
-      <c r="X95" s="8"/>
+      <c r="X95" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
       <c r="AA95" s="8"/>
@@ -9504,7 +9660,7 @@
     </row>
     <row r="96" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A96" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -9516,7 +9672,7 @@
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>182</v>
@@ -9593,28 +9749,26 @@
     </row>
     <row r="97" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A97" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
+      <c r="K97" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
@@ -9624,9 +9778,7 @@
       <c r="T97" s="8"/>
       <c r="U97" s="8"/>
       <c r="V97" s="8"/>
-      <c r="W97" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="W97" s="8"/>
       <c r="X97" s="8"/>
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
@@ -9659,12 +9811,8 @@
       <c r="BA97" s="8"/>
       <c r="BB97" s="8"/>
       <c r="BC97" s="8"/>
-      <c r="BD97" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BE97" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="BD97" s="8"/>
+      <c r="BE97" s="8"/>
       <c r="BF97" s="8"/>
       <c r="BG97" s="8"/>
       <c r="BH97" s="8"/>
@@ -9690,7 +9838,7 @@
     </row>
     <row r="98" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A98" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>160</v>
@@ -9757,7 +9905,7 @@
       <c r="BB98" s="8"/>
       <c r="BC98" s="8"/>
       <c r="BD98" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BE98" s="1" t="s">
         <v>159</v>
@@ -9785,9 +9933,9 @@
       <c r="BZ98" s="9"/>
       <c r="CA98" s="9"/>
     </row>
-    <row r="99" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A99" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>160</v>
@@ -9801,88 +9949,90 @@
       <c r="E99" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
       <c r="W99" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="X99" s="1"/>
-      <c r="Y99" s="1"/>
-      <c r="Z99" s="1"/>
-      <c r="AA99" s="1"/>
-      <c r="AB99" s="1"/>
-      <c r="AC99" s="1"/>
-      <c r="AD99" s="1"/>
-      <c r="AE99" s="1"/>
-      <c r="AF99" s="1"/>
-      <c r="AG99" s="1"/>
-      <c r="AH99" s="1"/>
-      <c r="AI99" s="1"/>
-      <c r="AJ99" s="1"/>
-      <c r="AK99" s="1"/>
-      <c r="AL99" s="1"/>
-      <c r="AM99" s="1"/>
-      <c r="AN99" s="1"/>
-      <c r="AO99" s="1"/>
-      <c r="AP99" s="1"/>
-      <c r="AQ99" s="1"/>
-      <c r="AR99" s="1"/>
-      <c r="AS99" s="1"/>
-      <c r="AT99" s="1"/>
-      <c r="AU99" s="1"/>
-      <c r="AV99" s="1"/>
-      <c r="AW99" s="1"/>
-      <c r="AX99" s="1"/>
-      <c r="AY99" s="1"/>
-      <c r="AZ99" s="1"/>
-      <c r="BA99" s="1"/>
-      <c r="BB99" s="1"/>
-      <c r="BC99" s="1"/>
-      <c r="BD99" s="1"/>
+      <c r="X99" s="8"/>
+      <c r="Y99" s="8"/>
+      <c r="Z99" s="8"/>
+      <c r="AA99" s="8"/>
+      <c r="AB99" s="8"/>
+      <c r="AC99" s="8"/>
+      <c r="AD99" s="8"/>
+      <c r="AE99" s="8"/>
+      <c r="AF99" s="8"/>
+      <c r="AG99" s="8"/>
+      <c r="AH99" s="8"/>
+      <c r="AI99" s="8"/>
+      <c r="AJ99" s="8"/>
+      <c r="AK99" s="8"/>
+      <c r="AL99" s="8"/>
+      <c r="AM99" s="8"/>
+      <c r="AN99" s="8"/>
+      <c r="AO99" s="8"/>
+      <c r="AP99" s="8"/>
+      <c r="AQ99" s="8"/>
+      <c r="AR99" s="8"/>
+      <c r="AS99" s="8"/>
+      <c r="AT99" s="8"/>
+      <c r="AU99" s="8"/>
+      <c r="AV99" s="8"/>
+      <c r="AW99" s="8"/>
+      <c r="AX99" s="8"/>
+      <c r="AY99" s="8"/>
+      <c r="AZ99" s="8"/>
+      <c r="BA99" s="8"/>
+      <c r="BB99" s="8"/>
+      <c r="BC99" s="8"/>
+      <c r="BD99" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="BE99" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF99" s="1"/>
-      <c r="BG99" s="1"/>
-      <c r="BH99" s="1"/>
-      <c r="BI99" s="1"/>
-      <c r="BJ99" s="1"/>
-      <c r="BK99" s="1"/>
-      <c r="BL99" s="1"/>
-      <c r="BM99" s="10"/>
-      <c r="BN99" s="10"/>
-      <c r="BO99" s="10"/>
-      <c r="BP99" s="10"/>
-      <c r="BQ99" s="10"/>
-      <c r="BR99" s="10"/>
-      <c r="BS99" s="10"/>
-      <c r="BT99" s="10"/>
-      <c r="BU99" s="10"/>
-      <c r="BV99" s="10"/>
-      <c r="BW99" s="10"/>
-      <c r="BX99" s="10"/>
-      <c r="BY99" s="10"/>
-      <c r="BZ99" s="10"/>
-      <c r="CA99" s="10"/>
+        <v>159</v>
+      </c>
+      <c r="BF99" s="8"/>
+      <c r="BG99" s="8"/>
+      <c r="BH99" s="8"/>
+      <c r="BI99" s="8"/>
+      <c r="BJ99" s="8"/>
+      <c r="BK99" s="8"/>
+      <c r="BL99" s="8"/>
+      <c r="BM99" s="9"/>
+      <c r="BN99" s="9"/>
+      <c r="BO99" s="9"/>
+      <c r="BP99" s="9"/>
+      <c r="BQ99" s="9"/>
+      <c r="BR99" s="9"/>
+      <c r="BS99" s="9"/>
+      <c r="BT99" s="9"/>
+      <c r="BU99" s="9"/>
+      <c r="BV99" s="9"/>
+      <c r="BW99" s="9"/>
+      <c r="BX99" s="9"/>
+      <c r="BY99" s="9"/>
+      <c r="BZ99" s="9"/>
+      <c r="CA99" s="9"/>
     </row>
     <row r="100" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A100" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>160</v>
@@ -9950,7 +10100,7 @@
       <c r="BC100" s="1"/>
       <c r="BD100" s="1"/>
       <c r="BE100" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BF100" s="1"/>
       <c r="BG100" s="1"/>
@@ -9977,24 +10127,28 @@
     </row>
     <row r="101" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A101" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
-      <c r="L101" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
       <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -10004,10 +10158,10 @@
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
       <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="X101" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="W101" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
@@ -10040,7 +10194,9 @@
       <c r="BB101" s="1"/>
       <c r="BC101" s="1"/>
       <c r="BD101" s="1"/>
-      <c r="BE101" s="1"/>
+      <c r="BE101" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="BF101" s="1"/>
       <c r="BG101" s="1"/>
       <c r="BH101" s="1"/>
@@ -10066,11 +10222,9 @@
     </row>
     <row r="102" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A102" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -10080,8 +10234,12 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
+      <c r="L102" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -10092,21 +10250,15 @@
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
+      <c r="X102" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="Y102" s="1"/>
-      <c r="Z102" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA102" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB102" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
-      <c r="AD102" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
       <c r="AF102" s="1"/>
       <c r="AG102" s="1"/>
@@ -10124,15 +10276,11 @@
       <c r="AS102" s="1"/>
       <c r="AT102" s="1"/>
       <c r="AU102" s="1"/>
-      <c r="AV102" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="AV102" s="1"/>
       <c r="AW102" s="1"/>
       <c r="AX102" s="1"/>
       <c r="AY102" s="1"/>
-      <c r="AZ102" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="AZ102" s="1"/>
       <c r="BA102" s="1"/>
       <c r="BB102" s="1"/>
       <c r="BC102" s="1"/>
@@ -10163,9 +10311,11 @@
     </row>
     <row r="103" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A103" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B103" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -10174,9 +10324,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
-      <c r="K103" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
@@ -10191,11 +10339,19 @@
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
-      <c r="Z103" s="1"/>
-      <c r="AA103" s="1"/>
-      <c r="AB103" s="1"/>
+      <c r="Z103" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA103" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB103" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AC103" s="1"/>
-      <c r="AD103" s="1"/>
+      <c r="AD103" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="AE103" s="1"/>
       <c r="AF103" s="1"/>
       <c r="AG103" s="1"/>
@@ -10213,11 +10369,15 @@
       <c r="AS103" s="1"/>
       <c r="AT103" s="1"/>
       <c r="AU103" s="1"/>
-      <c r="AV103" s="1"/>
+      <c r="AV103" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="AW103" s="1"/>
       <c r="AX103" s="1"/>
       <c r="AY103" s="1"/>
-      <c r="AZ103" s="1"/>
+      <c r="AZ103" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="BA103" s="1"/>
       <c r="BB103" s="1"/>
       <c r="BC103" s="1"/>
@@ -10248,7 +10408,7 @@
     </row>
     <row r="104" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A104" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -10259,7 +10419,9 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
+      <c r="K104" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
@@ -10272,9 +10434,7 @@
       <c r="U104" s="1"/>
       <c r="V104" s="1"/>
       <c r="W104" s="1"/>
-      <c r="X104" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
@@ -10333,16 +10493,12 @@
     </row>
     <row r="105" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A105" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -10362,7 +10518,7 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
       <c r="X105" s="1" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
@@ -10399,9 +10555,7 @@
       <c r="BE105" s="1"/>
       <c r="BF105" s="1"/>
       <c r="BG105" s="1"/>
-      <c r="BH105" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="BH105" s="1"/>
       <c r="BI105" s="1"/>
       <c r="BJ105" s="1"/>
       <c r="BK105" s="1"/>
@@ -10422,192 +10576,190 @@
       <c r="BZ105" s="10"/>
       <c r="CA105" s="10"/>
     </row>
-    <row r="106" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A106" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+      <c r="AM106" s="1"/>
+      <c r="AN106" s="1"/>
+      <c r="AO106" s="1"/>
+      <c r="AP106" s="1"/>
+      <c r="AQ106" s="1"/>
+      <c r="AR106" s="1"/>
+      <c r="AS106" s="1"/>
+      <c r="AT106" s="1"/>
+      <c r="AU106" s="1"/>
+      <c r="AV106" s="1"/>
+      <c r="AW106" s="1"/>
+      <c r="AX106" s="1"/>
+      <c r="AY106" s="1"/>
+      <c r="AZ106" s="1"/>
+      <c r="BA106" s="1"/>
+      <c r="BB106" s="1"/>
+      <c r="BC106" s="1"/>
+      <c r="BD106" s="1"/>
+      <c r="BE106" s="1"/>
+      <c r="BF106" s="1"/>
+      <c r="BG106" s="1"/>
+      <c r="BH106" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BI106" s="1"/>
+      <c r="BJ106" s="1"/>
+      <c r="BK106" s="1"/>
+      <c r="BL106" s="1"/>
+      <c r="BM106" s="10"/>
+      <c r="BN106" s="10"/>
+      <c r="BO106" s="10"/>
+      <c r="BP106" s="10"/>
+      <c r="BQ106" s="10"/>
+      <c r="BR106" s="10"/>
+      <c r="BS106" s="10"/>
+      <c r="BT106" s="10"/>
+      <c r="BU106" s="10"/>
+      <c r="BV106" s="10"/>
+      <c r="BW106" s="10"/>
+      <c r="BX106" s="10"/>
+      <c r="BY106" s="10"/>
+      <c r="BZ106" s="10"/>
+      <c r="CA106" s="10"/>
+    </row>
+    <row r="107" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A107" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
-      <c r="S106" s="8"/>
-      <c r="T106" s="8"/>
-      <c r="U106" s="8"/>
-      <c r="V106" s="8"/>
-      <c r="W106" s="8"/>
-      <c r="X106" s="1" t="s">
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="8"/>
+      <c r="X107" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="Y106" s="8"/>
-      <c r="Z106" s="8"/>
-      <c r="AA106" s="8"/>
-      <c r="AB106" s="8"/>
-      <c r="AC106" s="8"/>
-      <c r="AD106" s="8"/>
-      <c r="AE106" s="8"/>
-      <c r="AF106" s="8"/>
-      <c r="AG106" s="8"/>
-      <c r="AH106" s="8"/>
-      <c r="AI106" s="8"/>
-      <c r="AJ106" s="8"/>
-      <c r="AK106" s="8"/>
-      <c r="AL106" s="8"/>
-      <c r="AM106" s="8"/>
-      <c r="AN106" s="8"/>
-      <c r="AO106" s="8"/>
-      <c r="AP106" s="8"/>
-      <c r="AQ106" s="8"/>
-      <c r="AR106" s="8"/>
-      <c r="AS106" s="8"/>
-      <c r="AT106" s="8"/>
-      <c r="AU106" s="8"/>
-      <c r="AV106" s="8"/>
-      <c r="AW106" s="8"/>
-      <c r="AX106" s="8"/>
-      <c r="AY106" s="8"/>
-      <c r="AZ106" s="8"/>
-      <c r="BA106" s="8"/>
-      <c r="BB106" s="8"/>
-      <c r="BC106" s="8"/>
-      <c r="BD106" s="8"/>
-      <c r="BE106" s="8"/>
-      <c r="BF106" s="8"/>
-      <c r="BG106" s="8"/>
-      <c r="BH106" s="8"/>
-      <c r="BI106" s="8"/>
-      <c r="BJ106" s="8"/>
-      <c r="BK106" s="8"/>
-      <c r="BL106" s="8"/>
-      <c r="BM106" s="9"/>
-      <c r="BN106" s="9"/>
-      <c r="BO106" s="9"/>
-      <c r="BP106" s="9"/>
-      <c r="BQ106" s="9"/>
-      <c r="BR106" s="9"/>
-      <c r="BS106" s="9"/>
-      <c r="BT106" s="9"/>
-      <c r="BU106" s="9"/>
-      <c r="BV106" s="9"/>
-      <c r="BW106" s="9"/>
-      <c r="BX106" s="9"/>
-      <c r="BY106" s="9"/>
-      <c r="BZ106" s="9"/>
-      <c r="CA106" s="9"/>
-    </row>
-    <row r="107" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A107" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-      <c r="X107" s="1"/>
-      <c r="Y107" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z107" s="1"/>
-      <c r="AA107" s="1"/>
-      <c r="AB107" s="1"/>
-      <c r="AC107" s="1"/>
-      <c r="AD107" s="1"/>
-      <c r="AE107" s="1"/>
-      <c r="AF107" s="1"/>
-      <c r="AG107" s="1"/>
-      <c r="AH107" s="1"/>
-      <c r="AI107" s="1"/>
-      <c r="AJ107" s="1"/>
-      <c r="AK107" s="1"/>
-      <c r="AL107" s="1"/>
-      <c r="AM107" s="1"/>
-      <c r="AN107" s="1"/>
-      <c r="AO107" s="1"/>
-      <c r="AP107" s="1"/>
-      <c r="AQ107" s="1"/>
-      <c r="AR107" s="1"/>
-      <c r="AS107" s="1"/>
-      <c r="AT107" s="1"/>
-      <c r="AU107" s="1"/>
-      <c r="AV107" s="1"/>
-      <c r="AW107" s="1"/>
-      <c r="AX107" s="1"/>
-      <c r="AY107" s="1"/>
-      <c r="AZ107" s="1"/>
-      <c r="BA107" s="1"/>
-      <c r="BB107" s="1"/>
-      <c r="BC107" s="1"/>
-      <c r="BD107" s="1"/>
-      <c r="BE107" s="1"/>
-      <c r="BF107" s="1"/>
-      <c r="BG107" s="1"/>
-      <c r="BH107" s="1"/>
-      <c r="BI107" s="1"/>
-      <c r="BJ107" s="1"/>
-      <c r="BK107" s="1"/>
-      <c r="BL107" s="1"/>
-      <c r="BM107" s="10"/>
-      <c r="BN107" s="10"/>
-      <c r="BO107" s="10"/>
-      <c r="BP107" s="10"/>
-      <c r="BQ107" s="10"/>
-      <c r="BR107" s="10"/>
-      <c r="BS107" s="10"/>
-      <c r="BT107" s="10"/>
-      <c r="BU107" s="10"/>
-      <c r="BV107" s="10"/>
-      <c r="BW107" s="10"/>
-      <c r="BX107" s="10"/>
-      <c r="BY107" s="10"/>
-      <c r="BZ107" s="10"/>
-      <c r="CA107" s="10"/>
+      <c r="Y107" s="8"/>
+      <c r="Z107" s="8"/>
+      <c r="AA107" s="8"/>
+      <c r="AB107" s="8"/>
+      <c r="AC107" s="8"/>
+      <c r="AD107" s="8"/>
+      <c r="AE107" s="8"/>
+      <c r="AF107" s="8"/>
+      <c r="AG107" s="8"/>
+      <c r="AH107" s="8"/>
+      <c r="AI107" s="8"/>
+      <c r="AJ107" s="8"/>
+      <c r="AK107" s="8"/>
+      <c r="AL107" s="8"/>
+      <c r="AM107" s="8"/>
+      <c r="AN107" s="8"/>
+      <c r="AO107" s="8"/>
+      <c r="AP107" s="8"/>
+      <c r="AQ107" s="8"/>
+      <c r="AR107" s="8"/>
+      <c r="AS107" s="8"/>
+      <c r="AT107" s="8"/>
+      <c r="AU107" s="8"/>
+      <c r="AV107" s="8"/>
+      <c r="AW107" s="8"/>
+      <c r="AX107" s="8"/>
+      <c r="AY107" s="8"/>
+      <c r="AZ107" s="8"/>
+      <c r="BA107" s="8"/>
+      <c r="BB107" s="8"/>
+      <c r="BC107" s="8"/>
+      <c r="BD107" s="8"/>
+      <c r="BE107" s="8"/>
+      <c r="BF107" s="8"/>
+      <c r="BG107" s="8"/>
+      <c r="BH107" s="8"/>
+      <c r="BI107" s="8"/>
+      <c r="BJ107" s="8"/>
+      <c r="BK107" s="8"/>
+      <c r="BL107" s="8"/>
+      <c r="BM107" s="9"/>
+      <c r="BN107" s="9"/>
+      <c r="BO107" s="9"/>
+      <c r="BP107" s="9"/>
+      <c r="BQ107" s="9"/>
+      <c r="BR107" s="9"/>
+      <c r="BS107" s="9"/>
+      <c r="BT107" s="9"/>
+      <c r="BU107" s="9"/>
+      <c r="BV107" s="9"/>
+      <c r="BW107" s="9"/>
+      <c r="BX107" s="9"/>
+      <c r="BY107" s="9"/>
+      <c r="BZ107" s="9"/>
+      <c r="CA107" s="9"/>
     </row>
     <row r="108" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A108" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -10627,7 +10779,9 @@
       <c r="V108" s="1"/>
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
-      <c r="Y108" s="1"/>
+      <c r="Y108" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
@@ -10661,9 +10815,7 @@
       <c r="BD108" s="1"/>
       <c r="BE108" s="1"/>
       <c r="BF108" s="1"/>
-      <c r="BG108" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="BG108" s="1"/>
       <c r="BH108" s="1"/>
       <c r="BI108" s="1"/>
       <c r="BJ108" s="1"/>
@@ -10687,19 +10839,19 @@
     </row>
     <row r="109" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A109" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -10754,7 +10906,9 @@
       <c r="BD109" s="1"/>
       <c r="BE109" s="1"/>
       <c r="BF109" s="1"/>
-      <c r="BG109" s="1"/>
+      <c r="BG109" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="BH109" s="1"/>
       <c r="BI109" s="1"/>
       <c r="BJ109" s="1"/>
@@ -10778,19 +10932,19 @@
     </row>
     <row r="110" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A110" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -10869,19 +11023,19 @@
     </row>
     <row r="111" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A111" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -10960,19 +11114,19 @@
     </row>
     <row r="112" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A112" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -11051,19 +11205,19 @@
     </row>
     <row r="113" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A113" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -11142,19 +11296,19 @@
     </row>
     <row r="114" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A114" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -11233,12 +11387,20 @@
     </row>
     <row r="115" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A115" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -11258,9 +11420,7 @@
       <c r="V115" s="1"/>
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
-      <c r="Y115" s="1" t="s">
-        <v>239</v>
-      </c>
+      <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
@@ -11318,7 +11478,7 @@
     </row>
     <row r="116" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A116" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -11329,9 +11489,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
-      <c r="K116" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
@@ -11345,7 +11503,9 @@
       <c r="V116" s="1"/>
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
-      <c r="Y116" s="1"/>
+      <c r="Y116" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
@@ -11403,7 +11563,7 @@
     </row>
     <row r="117" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A117" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -11415,20 +11575,12 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
@@ -11437,9 +11589,7 @@
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
       <c r="W117" s="1"/>
-      <c r="X117" s="1" t="s">
-        <v>242</v>
-      </c>
+      <c r="X117" s="1"/>
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
@@ -11498,7 +11648,7 @@
     </row>
     <row r="118" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A118" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -11510,13 +11660,13 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="N118" s="1" t="s">
         <v>184</v>
@@ -11533,7 +11683,7 @@
       <c r="V118" s="1"/>
       <c r="W118" s="1"/>
       <c r="X118" s="1" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
@@ -11593,7 +11743,7 @@
     </row>
     <row r="119" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A119" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -11605,19 +11755,19 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
@@ -11628,7 +11778,7 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
       <c r="X119" s="1" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
@@ -11688,7 +11838,7 @@
     </row>
     <row r="120" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A120" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -11700,19 +11850,19 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
@@ -11723,7 +11873,7 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
       <c r="X120" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
@@ -11783,7 +11933,7 @@
     </row>
     <row r="121" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A121" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -11795,19 +11945,19 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
@@ -11818,7 +11968,7 @@
       <c r="V121" s="1"/>
       <c r="W121" s="1"/>
       <c r="X121" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
@@ -11878,7 +12028,7 @@
     </row>
     <row r="122" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A122" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -11889,11 +12039,21 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
+      <c r="K122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
@@ -11902,11 +12062,11 @@
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
-      <c r="X122" s="1"/>
+      <c r="X122" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="Y122" s="1"/>
-      <c r="Z122" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
       <c r="AC122" s="1"/>
@@ -11963,11 +12123,9 @@
     </row>
     <row r="123" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A123" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -11992,18 +12150,12 @@
       <c r="X123" s="1"/>
       <c r="Y123" s="1"/>
       <c r="Z123" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA123" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB123" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
-      <c r="AD123" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
       <c r="AF123" s="1"/>
       <c r="AG123" s="1"/>
@@ -12021,15 +12173,11 @@
       <c r="AS123" s="1"/>
       <c r="AT123" s="1"/>
       <c r="AU123" s="1"/>
-      <c r="AV123" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="AV123" s="1"/>
       <c r="AW123" s="1"/>
       <c r="AX123" s="1"/>
       <c r="AY123" s="1"/>
-      <c r="AZ123" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="AZ123" s="1"/>
       <c r="BA123" s="1"/>
       <c r="BB123" s="1"/>
       <c r="BC123" s="1"/>
@@ -12060,9 +12208,11 @@
     </row>
     <row r="124" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A124" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B124" s="1"/>
+        <v>227</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -12084,15 +12234,21 @@
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
-      <c r="X124" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="X124" s="1"/>
       <c r="Y124" s="1"/>
-      <c r="Z124" s="1"/>
-      <c r="AA124" s="1"/>
-      <c r="AB124" s="1"/>
+      <c r="Z124" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA124" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB124" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="AC124" s="1"/>
-      <c r="AD124" s="1"/>
+      <c r="AD124" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="AE124" s="1"/>
       <c r="AF124" s="1"/>
       <c r="AG124" s="1"/>
@@ -12110,11 +12266,15 @@
       <c r="AS124" s="1"/>
       <c r="AT124" s="1"/>
       <c r="AU124" s="1"/>
-      <c r="AV124" s="1"/>
+      <c r="AV124" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="AW124" s="1"/>
       <c r="AX124" s="1"/>
       <c r="AY124" s="1"/>
-      <c r="AZ124" s="1"/>
+      <c r="AZ124" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="BA124" s="1"/>
       <c r="BB124" s="1"/>
       <c r="BC124" s="1"/>
@@ -12145,7 +12305,7 @@
     </row>
     <row r="125" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A125" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -12170,7 +12330,7 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
       <c r="X125" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
@@ -12230,7 +12390,7 @@
     </row>
     <row r="126" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A126" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -12255,7 +12415,7 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
       <c r="X126" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
@@ -12313,150 +12473,154 @@
       <c r="BZ126" s="10"/>
       <c r="CA126" s="10"/>
     </row>
-    <row r="127" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A127" s="8"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
-      <c r="V127" s="2"/>
-      <c r="W127" s="2"/>
-      <c r="X127" s="2"/>
-      <c r="Y127" s="2"/>
-      <c r="Z127" s="2"/>
-      <c r="AA127" s="2"/>
-      <c r="AB127" s="2"/>
-      <c r="AC127" s="2"/>
-      <c r="AD127" s="2"/>
-      <c r="AE127" s="2"/>
-      <c r="AF127" s="2"/>
-      <c r="AG127" s="2"/>
-      <c r="AH127" s="2"/>
-      <c r="AI127" s="2"/>
-      <c r="AJ127" s="2"/>
-      <c r="AK127" s="2"/>
-      <c r="AL127" s="2"/>
-      <c r="AM127" s="2"/>
-      <c r="AN127" s="2"/>
-      <c r="AO127" s="2"/>
-      <c r="AP127" s="2"/>
-      <c r="AQ127" s="2"/>
-      <c r="AR127" s="2"/>
-      <c r="AS127" s="2"/>
-      <c r="AT127" s="2"/>
-      <c r="AU127" s="2"/>
-      <c r="AV127" s="2"/>
-      <c r="AW127" s="2"/>
-      <c r="AX127" s="2"/>
-      <c r="AY127" s="2"/>
-      <c r="AZ127" s="2"/>
-      <c r="BA127" s="2"/>
-      <c r="BB127" s="2"/>
-      <c r="BC127" s="2"/>
-      <c r="BD127" s="2"/>
-      <c r="BE127" s="2"/>
-      <c r="BF127" s="2"/>
-      <c r="BG127" s="2"/>
-      <c r="BH127" s="2"/>
-      <c r="BI127" s="2"/>
-      <c r="BJ127" s="2"/>
-      <c r="BK127" s="8"/>
-      <c r="BL127" s="8"/>
-      <c r="BM127" s="9"/>
-      <c r="BN127" s="9"/>
-      <c r="BO127" s="9"/>
-      <c r="BP127" s="9"/>
-      <c r="BQ127" s="9"/>
-      <c r="BR127" s="9"/>
-      <c r="BS127" s="9"/>
-      <c r="BT127" s="9"/>
-      <c r="BU127" s="9"/>
-      <c r="BV127" s="9"/>
-      <c r="BW127" s="9"/>
-      <c r="BX127" s="9"/>
-      <c r="BY127" s="9"/>
-      <c r="BZ127" s="9"/>
-      <c r="CA127" s="9"/>
+    <row r="127" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A127" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127" s="1"/>
+      <c r="AC127" s="1"/>
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="1"/>
+      <c r="AF127" s="1"/>
+      <c r="AG127" s="1"/>
+      <c r="AH127" s="1"/>
+      <c r="AI127" s="1"/>
+      <c r="AJ127" s="1"/>
+      <c r="AK127" s="1"/>
+      <c r="AL127" s="1"/>
+      <c r="AM127" s="1"/>
+      <c r="AN127" s="1"/>
+      <c r="AO127" s="1"/>
+      <c r="AP127" s="1"/>
+      <c r="AQ127" s="1"/>
+      <c r="AR127" s="1"/>
+      <c r="AS127" s="1"/>
+      <c r="AT127" s="1"/>
+      <c r="AU127" s="1"/>
+      <c r="AV127" s="1"/>
+      <c r="AW127" s="1"/>
+      <c r="AX127" s="1"/>
+      <c r="AY127" s="1"/>
+      <c r="AZ127" s="1"/>
+      <c r="BA127" s="1"/>
+      <c r="BB127" s="1"/>
+      <c r="BC127" s="1"/>
+      <c r="BD127" s="1"/>
+      <c r="BE127" s="1"/>
+      <c r="BF127" s="1"/>
+      <c r="BG127" s="1"/>
+      <c r="BH127" s="1"/>
+      <c r="BI127" s="1"/>
+      <c r="BJ127" s="1"/>
+      <c r="BK127" s="1"/>
+      <c r="BL127" s="1"/>
+      <c r="BM127" s="10"/>
+      <c r="BN127" s="10"/>
+      <c r="BO127" s="10"/>
+      <c r="BP127" s="10"/>
+      <c r="BQ127" s="10"/>
+      <c r="BR127" s="10"/>
+      <c r="BS127" s="10"/>
+      <c r="BT127" s="10"/>
+      <c r="BU127" s="10"/>
+      <c r="BV127" s="10"/>
+      <c r="BW127" s="10"/>
+      <c r="BX127" s="10"/>
+      <c r="BY127" s="10"/>
+      <c r="BZ127" s="10"/>
+      <c r="CA127" s="10"/>
     </row>
     <row r="128" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="8"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="8"/>
-      <c r="S128" s="8"/>
-      <c r="T128" s="8"/>
-      <c r="U128" s="8"/>
-      <c r="V128" s="8"/>
-      <c r="W128" s="8"/>
-      <c r="X128" s="8"/>
-      <c r="Y128" s="8"/>
-      <c r="Z128" s="8"/>
-      <c r="AA128" s="8"/>
-      <c r="AB128" s="8"/>
-      <c r="AC128" s="8"/>
-      <c r="AD128" s="8"/>
-      <c r="AE128" s="8"/>
-      <c r="AF128" s="8"/>
-      <c r="AG128" s="8"/>
-      <c r="AH128" s="8"/>
-      <c r="AI128" s="8"/>
-      <c r="AJ128" s="8"/>
-      <c r="AK128" s="8"/>
-      <c r="AL128" s="8"/>
-      <c r="AM128" s="8"/>
-      <c r="AN128" s="8"/>
-      <c r="AO128" s="8"/>
-      <c r="AP128" s="8"/>
-      <c r="AQ128" s="8"/>
-      <c r="AR128" s="8"/>
-      <c r="AS128" s="8"/>
-      <c r="AT128" s="8"/>
-      <c r="AU128" s="8"/>
-      <c r="AV128" s="8"/>
-      <c r="AW128" s="8"/>
-      <c r="AX128" s="8"/>
-      <c r="AY128" s="8"/>
-      <c r="AZ128" s="8"/>
-      <c r="BA128" s="8"/>
-      <c r="BB128" s="8"/>
-      <c r="BC128" s="8"/>
-      <c r="BD128" s="8"/>
-      <c r="BE128" s="8"/>
-      <c r="BF128" s="8"/>
-      <c r="BG128" s="8"/>
-      <c r="BH128" s="8"/>
-      <c r="BI128" s="8"/>
-      <c r="BJ128" s="8"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="2"/>
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="2"/>
+      <c r="AB128" s="2"/>
+      <c r="AC128" s="2"/>
+      <c r="AD128" s="2"/>
+      <c r="AE128" s="2"/>
+      <c r="AF128" s="2"/>
+      <c r="AG128" s="2"/>
+      <c r="AH128" s="2"/>
+      <c r="AI128" s="2"/>
+      <c r="AJ128" s="2"/>
+      <c r="AK128" s="2"/>
+      <c r="AL128" s="2"/>
+      <c r="AM128" s="2"/>
+      <c r="AN128" s="2"/>
+      <c r="AO128" s="2"/>
+      <c r="AP128" s="2"/>
+      <c r="AQ128" s="2"/>
+      <c r="AR128" s="2"/>
+      <c r="AS128" s="2"/>
+      <c r="AT128" s="2"/>
+      <c r="AU128" s="2"/>
+      <c r="AV128" s="2"/>
+      <c r="AW128" s="2"/>
+      <c r="AX128" s="2"/>
+      <c r="AY128" s="2"/>
+      <c r="AZ128" s="2"/>
+      <c r="BA128" s="2"/>
+      <c r="BB128" s="2"/>
+      <c r="BC128" s="2"/>
+      <c r="BD128" s="2"/>
+      <c r="BE128" s="2"/>
+      <c r="BF128" s="2"/>
+      <c r="BG128" s="2"/>
+      <c r="BH128" s="2"/>
+      <c r="BI128" s="2"/>
+      <c r="BJ128" s="2"/>
       <c r="BK128" s="8"/>
       <c r="BL128" s="8"/>
       <c r="BM128" s="9"/>
@@ -15229,71 +15393,152 @@
       <c r="BZ162" s="9"/>
       <c r="CA162" s="9"/>
     </row>
-    <row r="163" spans="1:79" x14ac:dyDescent="0.45">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
-      <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
-      <c r="K163" s="6"/>
-      <c r="L163" s="6"/>
-      <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
-      <c r="O163" s="6"/>
-      <c r="P163" s="6"/>
-      <c r="Q163" s="6"/>
-      <c r="R163" s="6"/>
-      <c r="S163" s="6"/>
-      <c r="T163" s="6"/>
-      <c r="U163" s="6"/>
-      <c r="V163" s="6"/>
-      <c r="W163" s="6"/>
-      <c r="X163" s="6"/>
-      <c r="Y163" s="6"/>
-      <c r="Z163" s="6"/>
-      <c r="AA163" s="6"/>
-      <c r="AB163" s="6"/>
-      <c r="AC163" s="6"/>
-      <c r="AD163" s="6"/>
-      <c r="AE163" s="6"/>
-      <c r="AF163" s="6"/>
-      <c r="AG163" s="6"/>
-      <c r="AH163" s="6"/>
-      <c r="AI163" s="6"/>
-      <c r="AJ163" s="6"/>
-      <c r="AK163" s="6"/>
-      <c r="AL163" s="6"/>
-      <c r="AM163" s="6"/>
-      <c r="AN163" s="6"/>
-      <c r="AO163" s="6"/>
-      <c r="AP163" s="6"/>
-      <c r="AQ163" s="6"/>
-      <c r="AR163" s="6"/>
-      <c r="AS163" s="6"/>
-      <c r="AT163" s="6"/>
-      <c r="AU163" s="6"/>
-      <c r="AV163" s="6"/>
-      <c r="AW163" s="6"/>
-      <c r="AX163" s="6"/>
-      <c r="AY163" s="6"/>
-      <c r="AZ163" s="6"/>
-      <c r="BA163" s="6"/>
-      <c r="BB163" s="6"/>
-      <c r="BC163" s="6"/>
-      <c r="BD163" s="6"/>
-      <c r="BE163" s="6"/>
-      <c r="BF163" s="6"/>
-      <c r="BG163" s="6"/>
-      <c r="BH163" s="6"/>
-      <c r="BI163" s="6"/>
-      <c r="BJ163" s="6"/>
-      <c r="BK163" s="6"/>
-      <c r="BL163" s="6"/>
+    <row r="163" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="8"/>
+      <c r="N163" s="8"/>
+      <c r="O163" s="8"/>
+      <c r="P163" s="8"/>
+      <c r="Q163" s="8"/>
+      <c r="R163" s="8"/>
+      <c r="S163" s="8"/>
+      <c r="T163" s="8"/>
+      <c r="U163" s="8"/>
+      <c r="V163" s="8"/>
+      <c r="W163" s="8"/>
+      <c r="X163" s="8"/>
+      <c r="Y163" s="8"/>
+      <c r="Z163" s="8"/>
+      <c r="AA163" s="8"/>
+      <c r="AB163" s="8"/>
+      <c r="AC163" s="8"/>
+      <c r="AD163" s="8"/>
+      <c r="AE163" s="8"/>
+      <c r="AF163" s="8"/>
+      <c r="AG163" s="8"/>
+      <c r="AH163" s="8"/>
+      <c r="AI163" s="8"/>
+      <c r="AJ163" s="8"/>
+      <c r="AK163" s="8"/>
+      <c r="AL163" s="8"/>
+      <c r="AM163" s="8"/>
+      <c r="AN163" s="8"/>
+      <c r="AO163" s="8"/>
+      <c r="AP163" s="8"/>
+      <c r="AQ163" s="8"/>
+      <c r="AR163" s="8"/>
+      <c r="AS163" s="8"/>
+      <c r="AT163" s="8"/>
+      <c r="AU163" s="8"/>
+      <c r="AV163" s="8"/>
+      <c r="AW163" s="8"/>
+      <c r="AX163" s="8"/>
+      <c r="AY163" s="8"/>
+      <c r="AZ163" s="8"/>
+      <c r="BA163" s="8"/>
+      <c r="BB163" s="8"/>
+      <c r="BC163" s="8"/>
+      <c r="BD163" s="8"/>
+      <c r="BE163" s="8"/>
+      <c r="BF163" s="8"/>
+      <c r="BG163" s="8"/>
+      <c r="BH163" s="8"/>
+      <c r="BI163" s="8"/>
+      <c r="BJ163" s="8"/>
+      <c r="BK163" s="8"/>
+      <c r="BL163" s="8"/>
+      <c r="BM163" s="9"/>
+      <c r="BN163" s="9"/>
+      <c r="BO163" s="9"/>
+      <c r="BP163" s="9"/>
+      <c r="BQ163" s="9"/>
+      <c r="BR163" s="9"/>
+      <c r="BS163" s="9"/>
+      <c r="BT163" s="9"/>
+      <c r="BU163" s="9"/>
+      <c r="BV163" s="9"/>
+      <c r="BW163" s="9"/>
+      <c r="BX163" s="9"/>
+      <c r="BY163" s="9"/>
+      <c r="BZ163" s="9"/>
+      <c r="CA163" s="9"/>
+    </row>
+    <row r="164" spans="1:79" x14ac:dyDescent="0.45">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+      <c r="S164" s="6"/>
+      <c r="T164" s="6"/>
+      <c r="U164" s="6"/>
+      <c r="V164" s="6"/>
+      <c r="W164" s="6"/>
+      <c r="X164" s="6"/>
+      <c r="Y164" s="6"/>
+      <c r="Z164" s="6"/>
+      <c r="AA164" s="6"/>
+      <c r="AB164" s="6"/>
+      <c r="AC164" s="6"/>
+      <c r="AD164" s="6"/>
+      <c r="AE164" s="6"/>
+      <c r="AF164" s="6"/>
+      <c r="AG164" s="6"/>
+      <c r="AH164" s="6"/>
+      <c r="AI164" s="6"/>
+      <c r="AJ164" s="6"/>
+      <c r="AK164" s="6"/>
+      <c r="AL164" s="6"/>
+      <c r="AM164" s="6"/>
+      <c r="AN164" s="6"/>
+      <c r="AO164" s="6"/>
+      <c r="AP164" s="6"/>
+      <c r="AQ164" s="6"/>
+      <c r="AR164" s="6"/>
+      <c r="AS164" s="6"/>
+      <c r="AT164" s="6"/>
+      <c r="AU164" s="6"/>
+      <c r="AV164" s="6"/>
+      <c r="AW164" s="6"/>
+      <c r="AX164" s="6"/>
+      <c r="AY164" s="6"/>
+      <c r="AZ164" s="6"/>
+      <c r="BA164" s="6"/>
+      <c r="BB164" s="6"/>
+      <c r="BC164" s="6"/>
+      <c r="BD164" s="6"/>
+      <c r="BE164" s="6"/>
+      <c r="BF164" s="6"/>
+      <c r="BG164" s="6"/>
+      <c r="BH164" s="6"/>
+      <c r="BI164" s="6"/>
+      <c r="BJ164" s="6"/>
+      <c r="BK164" s="6"/>
+      <c r="BL164" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TablaSintactica.xlsx
+++ b/TablaSintactica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Developer\OneDrive\Documentos\University\Archivos\PDF's\Autómatas\Programas\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21E1B00-B237-4E5F-B86A-F160B67499F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2E49C-89ED-4ED1-A9BB-4FC8C01D7A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{D62EC496-1556-4E0C-9A3E-7AF50D9FA4F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{D62EC496-1556-4E0C-9A3E-7AF50D9FA4F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -831,12 +831,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -851,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -878,6 +884,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1196,18 +1208,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E59CA23-57F3-4C77-80B4-8B27E4C8042E}">
   <dimension ref="A1:CY164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="67" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="45" max="45" width="12.33203125" customWidth="1"/>
-    <col min="46" max="46" width="12.6640625" customWidth="1"/>
-    <col min="47" max="47" width="14.19921875" customWidth="1"/>
+    <col min="45" max="45" width="12.28515625" customWidth="1"/>
+    <col min="46" max="46" width="12.7109375" customWidth="1"/>
+    <col min="47" max="47" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
@@ -1637,7 +1649,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>101</v>
       </c>
@@ -1703,7 +1715,7 @@
       <c r="BE3" s="2"/>
       <c r="BF3" s="2"/>
     </row>
-    <row r="4" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1767,7 +1779,7 @@
       <c r="BE4" s="3"/>
       <c r="BF4" s="3"/>
     </row>
-    <row r="5" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1831,7 +1843,7 @@
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
     </row>
-    <row r="6" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1895,7 +1907,7 @@
       <c r="BE6" s="3"/>
       <c r="BF6" s="3"/>
     </row>
-    <row r="7" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1959,7 +1971,7 @@
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
     </row>
-    <row r="8" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2051,7 +2063,7 @@
       <c r="BE8" s="3"/>
       <c r="BF8" s="3"/>
     </row>
-    <row r="9" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -2115,7 +2127,7 @@
       <c r="BE9" s="3"/>
       <c r="BF9" s="3"/>
     </row>
-    <row r="10" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2189,7 +2201,7 @@
       <c r="BE10" s="3"/>
       <c r="BF10" s="3"/>
     </row>
-    <row r="11" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -2253,7 +2265,7 @@
       <c r="BE11" s="3"/>
       <c r="BF11" s="3"/>
     </row>
-    <row r="12" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -2317,7 +2329,7 @@
       <c r="BE12" s="3"/>
       <c r="BF12" s="3"/>
     </row>
-    <row r="13" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2381,7 +2393,7 @@
       <c r="BE13" s="3"/>
       <c r="BF13" s="3"/>
     </row>
-    <row r="14" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -2445,7 +2457,7 @@
       <c r="BE14" s="3"/>
       <c r="BF14" s="3"/>
     </row>
-    <row r="15" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -2509,7 +2521,7 @@
       <c r="BE15" s="3"/>
       <c r="BF15" s="3"/>
     </row>
-    <row r="16" spans="1:62" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:62" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2573,7 +2585,7 @@
       <c r="BE16" s="3"/>
       <c r="BF16" s="3"/>
     </row>
-    <row r="17" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2639,7 +2651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2713,7 +2725,7 @@
       <c r="BE18" s="3"/>
       <c r="BF18" s="3"/>
     </row>
-    <row r="19" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2777,7 +2789,7 @@
       <c r="BE19" s="3"/>
       <c r="BF19" s="3"/>
     </row>
-    <row r="20" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2841,7 +2853,7 @@
       <c r="BE20" s="3"/>
       <c r="BF20" s="3"/>
     </row>
-    <row r="21" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2905,7 +2917,7 @@
       <c r="BE21" s="3"/>
       <c r="BF21" s="3"/>
     </row>
-    <row r="22" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2977,7 +2989,7 @@
       <c r="BE22" s="3"/>
       <c r="BF22" s="3"/>
     </row>
-    <row r="23" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -3041,7 +3053,7 @@
       <c r="BE23" s="3"/>
       <c r="BF23" s="3"/>
     </row>
-    <row r="24" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3105,7 +3117,7 @@
       <c r="BE24" s="3"/>
       <c r="BF24" s="3"/>
     </row>
-    <row r="25" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3169,7 +3181,7 @@
       <c r="BE25" s="3"/>
       <c r="BF25" s="3"/>
     </row>
-    <row r="26" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -3233,7 +3245,7 @@
       <c r="BE26" s="3"/>
       <c r="BF26" s="3"/>
     </row>
-    <row r="27" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -3311,7 +3323,7 @@
       <c r="BE27" s="3"/>
       <c r="BF27" s="3"/>
     </row>
-    <row r="28" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
@@ -3389,7 +3401,7 @@
       <c r="BE28" s="3"/>
       <c r="BF28" s="3"/>
     </row>
-    <row r="29" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -3459,7 +3471,7 @@
       <c r="BE29" s="3"/>
       <c r="BF29" s="3"/>
     </row>
-    <row r="30" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -3523,7 +3535,7 @@
       <c r="BE30" s="3"/>
       <c r="BF30" s="3"/>
     </row>
-    <row r="31" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -3613,7 +3625,7 @@
       <c r="BE31" s="3"/>
       <c r="BF31" s="3"/>
     </row>
-    <row r="32" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -3677,7 +3689,7 @@
       <c r="BE32" s="3"/>
       <c r="BF32" s="3"/>
     </row>
-    <row r="33" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -3741,7 +3753,7 @@
       <c r="BE33" s="3"/>
       <c r="BF33" s="3"/>
     </row>
-    <row r="34" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
@@ -3809,7 +3821,7 @@
       <c r="BE34" s="3"/>
       <c r="BF34" s="3"/>
     </row>
-    <row r="35" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
@@ -3875,7 +3887,7 @@
       <c r="BE35" s="3"/>
       <c r="BF35" s="3"/>
     </row>
-    <row r="36" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>32</v>
       </c>
@@ -3941,7 +3953,7 @@
       <c r="BE36" s="3"/>
       <c r="BF36" s="3"/>
     </row>
-    <row r="37" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
@@ -4007,7 +4019,7 @@
       <c r="BE37" s="3"/>
       <c r="BF37" s="3"/>
     </row>
-    <row r="38" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>34</v>
       </c>
@@ -4079,7 +4091,7 @@
       <c r="BE38" s="3"/>
       <c r="BF38" s="3"/>
     </row>
-    <row r="39" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>35</v>
       </c>
@@ -4157,7 +4169,7 @@
       <c r="BE39" s="3"/>
       <c r="BF39" s="3"/>
     </row>
-    <row r="40" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>36</v>
       </c>
@@ -4221,7 +4233,7 @@
       <c r="BE40" s="3"/>
       <c r="BF40" s="3"/>
     </row>
-    <row r="41" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>37</v>
       </c>
@@ -4247,8 +4259,8 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-      <c r="X41" s="3" t="s">
-        <v>40</v>
+      <c r="X41" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
@@ -4285,7 +4297,7 @@
       <c r="BE41" s="3"/>
       <c r="BF41" s="3"/>
     </row>
-    <row r="42" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
@@ -4363,7 +4375,7 @@
       <c r="BE42" s="3"/>
       <c r="BF42" s="3"/>
     </row>
-    <row r="43" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
@@ -4441,7 +4453,7 @@
       <c r="BE43" s="3"/>
       <c r="BF43" s="3"/>
     </row>
-    <row r="44" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>40</v>
       </c>
@@ -4505,7 +4517,7 @@
       <c r="BE44" s="3"/>
       <c r="BF44" s="3"/>
     </row>
-    <row r="45" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -4569,7 +4581,7 @@
       <c r="BE45" s="3"/>
       <c r="BF45" s="3"/>
     </row>
-    <row r="46" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -4661,7 +4673,7 @@
       <c r="BE46" s="3"/>
       <c r="BF46" s="3"/>
     </row>
-    <row r="47" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>43</v>
       </c>
@@ -4753,7 +4765,7 @@
       <c r="BE47" s="3"/>
       <c r="BF47" s="3"/>
     </row>
-    <row r="48" spans="1:58" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -4817,7 +4829,7 @@
       <c r="BE48" s="3"/>
       <c r="BF48" s="3"/>
     </row>
-    <row r="49" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>45</v>
       </c>
@@ -4938,7 +4950,7 @@
       <c r="CX49" s="4"/>
       <c r="CY49" s="4"/>
     </row>
-    <row r="50" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>104</v>
       </c>
@@ -5047,7 +5059,7 @@
       <c r="CX50" s="4"/>
       <c r="CY50" s="4"/>
     </row>
-    <row r="51" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>105</v>
       </c>
@@ -5156,7 +5168,7 @@
       <c r="CX51" s="4"/>
       <c r="CY51" s="4"/>
     </row>
-    <row r="52" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>106</v>
       </c>
@@ -5265,7 +5277,7 @@
       <c r="CX52" s="4"/>
       <c r="CY52" s="4"/>
     </row>
-    <row r="53" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>107</v>
       </c>
@@ -5380,7 +5392,7 @@
       <c r="CX53" s="4"/>
       <c r="CY53" s="4"/>
     </row>
-    <row r="54" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>108</v>
       </c>
@@ -5489,7 +5501,7 @@
       <c r="CX54" s="4"/>
       <c r="CY54" s="4"/>
     </row>
-    <row r="55" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>109</v>
       </c>
@@ -5598,7 +5610,7 @@
       <c r="CX55" s="4"/>
       <c r="CY55" s="4"/>
     </row>
-    <row r="56" spans="1:103" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -5707,7 +5719,7 @@
       <c r="CX56" s="4"/>
       <c r="CY56" s="4"/>
     </row>
-    <row r="57" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
@@ -5816,7 +5828,7 @@
       <c r="CX57" s="4"/>
       <c r="CY57" s="4"/>
     </row>
-    <row r="58" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>112</v>
       </c>
@@ -5929,7 +5941,7 @@
       <c r="CX58" s="4"/>
       <c r="CY58" s="4"/>
     </row>
-    <row r="59" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>113</v>
       </c>
@@ -6050,7 +6062,7 @@
       <c r="CX59" s="4"/>
       <c r="CY59" s="4"/>
     </row>
-    <row r="60" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -6167,7 +6179,7 @@
       <c r="CX60" s="4"/>
       <c r="CY60" s="4"/>
     </row>
-    <row r="61" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>142</v>
       </c>
@@ -6276,7 +6288,7 @@
       <c r="CX61" s="4"/>
       <c r="CY61" s="4"/>
     </row>
-    <row r="62" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>143</v>
       </c>
@@ -6409,7 +6421,7 @@
       <c r="CX62" s="4"/>
       <c r="CY62" s="4"/>
     </row>
-    <row r="63" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>144</v>
       </c>
@@ -6530,7 +6542,7 @@
       <c r="CX63" s="4"/>
       <c r="CY63" s="4"/>
     </row>
-    <row r="64" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>145</v>
       </c>
@@ -6645,7 +6657,7 @@
       <c r="CX64" s="4"/>
       <c r="CY64" s="4"/>
     </row>
-    <row r="65" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>146</v>
       </c>
@@ -6764,7 +6776,7 @@
       <c r="CX65" s="4"/>
       <c r="CY65" s="4"/>
     </row>
-    <row r="66" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>147</v>
       </c>
@@ -6883,7 +6895,7 @@
       <c r="CX66" s="4"/>
       <c r="CY66" s="4"/>
     </row>
-    <row r="67" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>149</v>
       </c>
@@ -6992,7 +7004,7 @@
       <c r="CX67" s="4"/>
       <c r="CY67" s="4"/>
     </row>
-    <row r="68" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>150</v>
       </c>
@@ -7101,7 +7113,7 @@
       <c r="CX68" s="4"/>
       <c r="CY68" s="4"/>
     </row>
-    <row r="69" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>151</v>
       </c>
@@ -7210,7 +7222,7 @@
       <c r="CX69" s="4"/>
       <c r="CY69" s="4"/>
     </row>
-    <row r="70" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>152</v>
       </c>
@@ -7319,7 +7331,7 @@
       <c r="CX70" s="4"/>
       <c r="CY70" s="4"/>
     </row>
-    <row r="71" spans="1:103" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>153</v>
       </c>
@@ -7428,7 +7440,7 @@
       <c r="CX71" s="4"/>
       <c r="CY71" s="4"/>
     </row>
-    <row r="72" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>154</v>
       </c>
@@ -7527,7 +7539,7 @@
       <c r="BZ72" s="9"/>
       <c r="CA72" s="9"/>
     </row>
-    <row r="73" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>155</v>
       </c>
@@ -7626,7 +7638,7 @@
       <c r="BZ73" s="9"/>
       <c r="CA73" s="9"/>
     </row>
-    <row r="74" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>157</v>
       </c>
@@ -7715,7 +7727,7 @@
       <c r="BZ74" s="9"/>
       <c r="CA74" s="9"/>
     </row>
-    <row r="75" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>158</v>
       </c>
@@ -7810,7 +7822,7 @@
       <c r="BZ75" s="9"/>
       <c r="CA75" s="9"/>
     </row>
-    <row r="76" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>159</v>
       </c>
@@ -7905,7 +7917,7 @@
       <c r="BZ76" s="9"/>
       <c r="CA76" s="9"/>
     </row>
-    <row r="77" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>160</v>
       </c>
@@ -8000,7 +8012,7 @@
       <c r="BZ77" s="9"/>
       <c r="CA77" s="9"/>
     </row>
-    <row r="78" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>161</v>
       </c>
@@ -8095,7 +8107,7 @@
       <c r="BZ78" s="9"/>
       <c r="CA78" s="9"/>
     </row>
-    <row r="79" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>162</v>
       </c>
@@ -8190,7 +8202,7 @@
       <c r="BZ79" s="9"/>
       <c r="CA79" s="9"/>
     </row>
-    <row r="80" spans="1:103" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:103" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>163</v>
       </c>
@@ -8285,7 +8297,7 @@
       <c r="BZ80" s="9"/>
       <c r="CA80" s="9"/>
     </row>
-    <row r="81" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>164</v>
       </c>
@@ -8384,7 +8396,7 @@
       <c r="BZ81" s="9"/>
       <c r="CA81" s="9"/>
     </row>
-    <row r="82" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>165</v>
       </c>
@@ -8469,7 +8481,7 @@
       <c r="BZ82" s="9"/>
       <c r="CA82" s="9"/>
     </row>
-    <row r="83" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>168</v>
       </c>
@@ -8554,7 +8566,7 @@
       <c r="BZ83" s="9"/>
       <c r="CA83" s="9"/>
     </row>
-    <row r="84" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
@@ -8643,7 +8655,7 @@
       <c r="BZ84" s="9"/>
       <c r="CA84" s="9"/>
     </row>
-    <row r="85" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>167</v>
       </c>
@@ -8732,7 +8744,7 @@
       <c r="BZ85" s="9"/>
       <c r="CA85" s="9"/>
     </row>
-    <row r="86" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>176</v>
       </c>
@@ -8817,7 +8829,7 @@
       <c r="BZ86" s="9"/>
       <c r="CA86" s="9"/>
     </row>
-    <row r="87" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>175</v>
       </c>
@@ -8914,7 +8926,7 @@
       <c r="BZ87" s="9"/>
       <c r="CA87" s="9"/>
     </row>
-    <row r="88" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>170</v>
       </c>
@@ -9011,7 +9023,7 @@
       <c r="BZ88" s="9"/>
       <c r="CA88" s="9"/>
     </row>
-    <row r="89" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>171</v>
       </c>
@@ -9108,7 +9120,7 @@
       <c r="BZ89" s="9"/>
       <c r="CA89" s="9"/>
     </row>
-    <row r="90" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>172</v>
       </c>
@@ -9205,7 +9217,7 @@
       <c r="BZ90" s="9"/>
       <c r="CA90" s="9"/>
     </row>
-    <row r="91" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>173</v>
       </c>
@@ -9302,7 +9314,7 @@
       <c r="BZ91" s="9"/>
       <c r="CA91" s="9"/>
     </row>
-    <row r="92" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>174</v>
       </c>
@@ -9387,7 +9399,7 @@
       <c r="BZ92" s="9"/>
       <c r="CA92" s="9"/>
     </row>
-    <row r="93" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>177</v>
       </c>
@@ -9480,7 +9492,7 @@
       <c r="BZ93" s="9"/>
       <c r="CA93" s="9"/>
     </row>
-    <row r="94" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>178</v>
       </c>
@@ -9573,7 +9585,7 @@
       <c r="BZ94" s="9"/>
       <c r="CA94" s="9"/>
     </row>
-    <row r="95" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>179</v>
       </c>
@@ -9658,7 +9670,7 @@
       <c r="BZ95" s="9"/>
       <c r="CA95" s="9"/>
     </row>
-    <row r="96" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>180</v>
       </c>
@@ -9747,7 +9759,7 @@
       <c r="BZ96" s="9"/>
       <c r="CA96" s="9"/>
     </row>
-    <row r="97" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>181</v>
       </c>
@@ -9836,7 +9848,7 @@
       <c r="BZ97" s="9"/>
       <c r="CA97" s="9"/>
     </row>
-    <row r="98" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>182</v>
       </c>
@@ -9933,7 +9945,7 @@
       <c r="BZ98" s="9"/>
       <c r="CA98" s="9"/>
     </row>
-    <row r="99" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>183</v>
       </c>
@@ -10030,7 +10042,7 @@
       <c r="BZ99" s="9"/>
       <c r="CA99" s="9"/>
     </row>
-    <row r="100" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>184</v>
       </c>
@@ -10125,7 +10137,7 @@
       <c r="BZ100" s="10"/>
       <c r="CA100" s="10"/>
     </row>
-    <row r="101" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>188</v>
       </c>
@@ -10220,7 +10232,7 @@
       <c r="BZ101" s="10"/>
       <c r="CA101" s="10"/>
     </row>
-    <row r="102" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>196</v>
       </c>
@@ -10309,7 +10321,7 @@
       <c r="BZ102" s="10"/>
       <c r="CA102" s="10"/>
     </row>
-    <row r="103" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>197</v>
       </c>
@@ -10406,7 +10418,7 @@
       <c r="BZ103" s="10"/>
       <c r="CA103" s="10"/>
     </row>
-    <row r="104" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>198</v>
       </c>
@@ -10491,7 +10503,7 @@
       <c r="BZ104" s="10"/>
       <c r="CA104" s="10"/>
     </row>
-    <row r="105" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>200</v>
       </c>
@@ -10576,7 +10588,7 @@
       <c r="BZ105" s="10"/>
       <c r="CA105" s="10"/>
     </row>
-    <row r="106" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>199</v>
       </c>
@@ -10667,7 +10679,7 @@
       <c r="BZ106" s="10"/>
       <c r="CA106" s="10"/>
     </row>
-    <row r="107" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>202</v>
       </c>
@@ -10752,7 +10764,7 @@
       <c r="BZ107" s="9"/>
       <c r="CA107" s="9"/>
     </row>
-    <row r="108" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>203</v>
       </c>
@@ -10837,7 +10849,7 @@
       <c r="BZ108" s="10"/>
       <c r="CA108" s="10"/>
     </row>
-    <row r="109" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>204</v>
       </c>
@@ -10930,7 +10942,7 @@
       <c r="BZ109" s="10"/>
       <c r="CA109" s="10"/>
     </row>
-    <row r="110" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>205</v>
       </c>
@@ -11021,7 +11033,7 @@
       <c r="BZ110" s="10"/>
       <c r="CA110" s="10"/>
     </row>
-    <row r="111" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>206</v>
       </c>
@@ -11112,7 +11124,7 @@
       <c r="BZ111" s="10"/>
       <c r="CA111" s="10"/>
     </row>
-    <row r="112" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>207</v>
       </c>
@@ -11203,7 +11215,7 @@
       <c r="BZ112" s="10"/>
       <c r="CA112" s="10"/>
     </row>
-    <row r="113" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>208</v>
       </c>
@@ -11294,7 +11306,7 @@
       <c r="BZ113" s="10"/>
       <c r="CA113" s="10"/>
     </row>
-    <row r="114" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>209</v>
       </c>
@@ -11385,7 +11397,7 @@
       <c r="BZ114" s="10"/>
       <c r="CA114" s="10"/>
     </row>
-    <row r="115" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>210</v>
       </c>
@@ -11476,7 +11488,7 @@
       <c r="BZ115" s="10"/>
       <c r="CA115" s="10"/>
     </row>
-    <row r="116" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>215</v>
       </c>
@@ -11561,7 +11573,7 @@
       <c r="BZ116" s="10"/>
       <c r="CA116" s="10"/>
     </row>
-    <row r="117" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>218</v>
       </c>
@@ -11646,7 +11658,7 @@
       <c r="BZ117" s="10"/>
       <c r="CA117" s="10"/>
     </row>
-    <row r="118" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>221</v>
       </c>
@@ -11741,7 +11753,7 @@
       <c r="BZ118" s="10"/>
       <c r="CA118" s="10"/>
     </row>
-    <row r="119" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>222</v>
       </c>
@@ -11836,7 +11848,7 @@
       <c r="BZ119" s="10"/>
       <c r="CA119" s="10"/>
     </row>
-    <row r="120" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>223</v>
       </c>
@@ -11931,7 +11943,7 @@
       <c r="BZ120" s="10"/>
       <c r="CA120" s="10"/>
     </row>
-    <row r="121" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>224</v>
       </c>
@@ -12026,7 +12038,7 @@
       <c r="BZ121" s="10"/>
       <c r="CA121" s="10"/>
     </row>
-    <row r="122" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>225</v>
       </c>
@@ -12121,7 +12133,7 @@
       <c r="BZ122" s="10"/>
       <c r="CA122" s="10"/>
     </row>
-    <row r="123" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>226</v>
       </c>
@@ -12206,7 +12218,7 @@
       <c r="BZ123" s="10"/>
       <c r="CA123" s="10"/>
     </row>
-    <row r="124" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>227</v>
       </c>
@@ -12303,7 +12315,7 @@
       <c r="BZ124" s="10"/>
       <c r="CA124" s="10"/>
     </row>
-    <row r="125" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>229</v>
       </c>
@@ -12388,7 +12400,7 @@
       <c r="BZ125" s="10"/>
       <c r="CA125" s="10"/>
     </row>
-    <row r="126" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>232</v>
       </c>
@@ -12473,7 +12485,7 @@
       <c r="BZ126" s="10"/>
       <c r="CA126" s="10"/>
     </row>
-    <row r="127" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:79" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>241</v>
       </c>
@@ -12499,11 +12511,10 @@
       <c r="U127" s="1"/>
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
-      <c r="X127" s="1" t="s">
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="Y127" s="1"/>
-      <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
       <c r="AC127" s="1"/>
@@ -12558,7 +12569,7 @@
       <c r="BZ127" s="10"/>
       <c r="CA127" s="10"/>
     </row>
-    <row r="128" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -12639,7 +12650,7 @@
       <c r="BZ128" s="9"/>
       <c r="CA128" s="9"/>
     </row>
-    <row r="129" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -12720,7 +12731,7 @@
       <c r="BZ129" s="9"/>
       <c r="CA129" s="9"/>
     </row>
-    <row r="130" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -12801,7 +12812,7 @@
       <c r="BZ130" s="9"/>
       <c r="CA130" s="9"/>
     </row>
-    <row r="131" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -12882,7 +12893,7 @@
       <c r="BZ131" s="9"/>
       <c r="CA131" s="9"/>
     </row>
-    <row r="132" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -12963,7 +12974,7 @@
       <c r="BZ132" s="9"/>
       <c r="CA132" s="9"/>
     </row>
-    <row r="133" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -13044,7 +13055,7 @@
       <c r="BZ133" s="9"/>
       <c r="CA133" s="9"/>
     </row>
-    <row r="134" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -13125,7 +13136,7 @@
       <c r="BZ134" s="9"/>
       <c r="CA134" s="9"/>
     </row>
-    <row r="135" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -13206,7 +13217,7 @@
       <c r="BZ135" s="9"/>
       <c r="CA135" s="9"/>
     </row>
-    <row r="136" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -13287,7 +13298,7 @@
       <c r="BZ136" s="9"/>
       <c r="CA136" s="9"/>
     </row>
-    <row r="137" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -13368,7 +13379,7 @@
       <c r="BZ137" s="9"/>
       <c r="CA137" s="9"/>
     </row>
-    <row r="138" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -13449,7 +13460,7 @@
       <c r="BZ138" s="9"/>
       <c r="CA138" s="9"/>
     </row>
-    <row r="139" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -13530,7 +13541,7 @@
       <c r="BZ139" s="9"/>
       <c r="CA139" s="9"/>
     </row>
-    <row r="140" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -13611,7 +13622,7 @@
       <c r="BZ140" s="9"/>
       <c r="CA140" s="9"/>
     </row>
-    <row r="141" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -13692,7 +13703,7 @@
       <c r="BZ141" s="9"/>
       <c r="CA141" s="9"/>
     </row>
-    <row r="142" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -13773,7 +13784,7 @@
       <c r="BZ142" s="9"/>
       <c r="CA142" s="9"/>
     </row>
-    <row r="143" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -13854,7 +13865,7 @@
       <c r="BZ143" s="9"/>
       <c r="CA143" s="9"/>
     </row>
-    <row r="144" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -13935,7 +13946,7 @@
       <c r="BZ144" s="9"/>
       <c r="CA144" s="9"/>
     </row>
-    <row r="145" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -14016,7 +14027,7 @@
       <c r="BZ145" s="9"/>
       <c r="CA145" s="9"/>
     </row>
-    <row r="146" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -14097,7 +14108,7 @@
       <c r="BZ146" s="9"/>
       <c r="CA146" s="9"/>
     </row>
-    <row r="147" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -14178,7 +14189,7 @@
       <c r="BZ147" s="9"/>
       <c r="CA147" s="9"/>
     </row>
-    <row r="148" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -14259,7 +14270,7 @@
       <c r="BZ148" s="9"/>
       <c r="CA148" s="9"/>
     </row>
-    <row r="149" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -14340,7 +14351,7 @@
       <c r="BZ149" s="9"/>
       <c r="CA149" s="9"/>
     </row>
-    <row r="150" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -14421,7 +14432,7 @@
       <c r="BZ150" s="9"/>
       <c r="CA150" s="9"/>
     </row>
-    <row r="151" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -14502,7 +14513,7 @@
       <c r="BZ151" s="9"/>
       <c r="CA151" s="9"/>
     </row>
-    <row r="152" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -14583,7 +14594,7 @@
       <c r="BZ152" s="9"/>
       <c r="CA152" s="9"/>
     </row>
-    <row r="153" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -14664,7 +14675,7 @@
       <c r="BZ153" s="9"/>
       <c r="CA153" s="9"/>
     </row>
-    <row r="154" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -14745,7 +14756,7 @@
       <c r="BZ154" s="9"/>
       <c r="CA154" s="9"/>
     </row>
-    <row r="155" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -14826,7 +14837,7 @@
       <c r="BZ155" s="9"/>
       <c r="CA155" s="9"/>
     </row>
-    <row r="156" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -14907,7 +14918,7 @@
       <c r="BZ156" s="9"/>
       <c r="CA156" s="9"/>
     </row>
-    <row r="157" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -14988,7 +14999,7 @@
       <c r="BZ157" s="9"/>
       <c r="CA157" s="9"/>
     </row>
-    <row r="158" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -15069,7 +15080,7 @@
       <c r="BZ158" s="9"/>
       <c r="CA158" s="9"/>
     </row>
-    <row r="159" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -15150,7 +15161,7 @@
       <c r="BZ159" s="9"/>
       <c r="CA159" s="9"/>
     </row>
-    <row r="160" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -15231,7 +15242,7 @@
       <c r="BZ160" s="9"/>
       <c r="CA160" s="9"/>
     </row>
-    <row r="161" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -15312,7 +15323,7 @@
       <c r="BZ161" s="9"/>
       <c r="CA161" s="9"/>
     </row>
-    <row r="162" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -15393,7 +15404,7 @@
       <c r="BZ162" s="9"/>
       <c r="CA162" s="9"/>
     </row>
-    <row r="163" spans="1:79" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:79" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -15474,7 +15485,7 @@
       <c r="BZ163" s="9"/>
       <c r="CA163" s="9"/>
     </row>
-    <row r="164" spans="1:79" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>

--- a/TablaSintactica.xlsx
+++ b/TablaSintactica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Developer\OneDrive\Documentos\University\Archivos\PDF's\Autómatas\Programas\Compilador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A2E49C-89ED-4ED1-A9BB-4FC8C01D7A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E72A64-A9F9-473C-8341-7A0DD0B7ACDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{D62EC496-1556-4E0C-9A3E-7AF50D9FA4F9}"/>
   </bookViews>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E59CA23-57F3-4C77-80B4-8B27E4C8042E}">
   <dimension ref="A1:CY164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="67" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K118" sqref="K118"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="67" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
